--- a/England - submitted 19Jun25/prev_tbl.xlsx
+++ b/England - submitted 19Jun25/prev_tbl.xlsx
@@ -91,1550 +91,1550 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>15.096714262664086</v>
+        <v>13.935947047048575</v>
       </c>
       <c r="B1" s="0">
-        <v>14.140909939682043</v>
+        <v>12.994749683708891</v>
       </c>
       <c r="C1" s="0">
-        <v>13.180565607599235</v>
+        <v>12.094903927047087</v>
       </c>
       <c r="D1" s="0">
-        <v>12.255361624579825</v>
+        <v>11.255350092950552</v>
       </c>
       <c r="E1" s="0">
-        <v>11.549282387185727</v>
+        <v>10.613875275880162</v>
       </c>
       <c r="F1" s="0">
-        <v>11.094277173026228</v>
+        <v>10.196066641082092</v>
       </c>
       <c r="G1" s="0">
-        <v>10.635176743084475</v>
+        <v>9.7610687705775572</v>
       </c>
       <c r="H1" s="0">
-        <v>10.539844843090016</v>
+        <v>9.6825288039014499</v>
       </c>
       <c r="I1" s="0">
-        <v>11.54955261936065</v>
+        <v>10.661243770849008</v>
       </c>
       <c r="J1" s="0">
-        <v>13.288474883002724</v>
+        <v>12.336914178358366</v>
       </c>
       <c r="K1" s="0">
-        <v>14.875833824547335</v>
+        <v>13.123795182466131</v>
       </c>
       <c r="L1" s="0">
-        <v>16.025906996102702</v>
+        <v>12.868134335177349</v>
       </c>
       <c r="M1" s="0">
-        <v>16.869401049351126</v>
+        <v>12.64763362240766</v>
       </c>
       <c r="N1" s="0">
-        <v>17.494443398461161</v>
+        <v>12.501314164330729</v>
       </c>
       <c r="O1" s="0">
-        <v>17.95904103210755</v>
+        <v>12.393255200564338</v>
       </c>
       <c r="P1" s="0">
-        <v>18.304037343196107</v>
+        <v>12.309368211754958</v>
       </c>
       <c r="Q1" s="0">
-        <v>18.55923672985071</v>
+        <v>12.242292365146913</v>
       </c>
       <c r="R1" s="0">
-        <v>18.746760374495288</v>
+        <v>12.18753434845056</v>
       </c>
       <c r="S1" s="0">
-        <v>18.883174736288517</v>
+        <v>12.142026851881194</v>
       </c>
       <c r="T1" s="0">
-        <v>18.980965799820495</v>
+        <v>12.10357787132817</v>
       </c>
       <c r="U1" s="0">
-        <v>19.049585935995665</v>
+        <v>12.070587255339461</v>
       </c>
       <c r="V1" s="0">
-        <v>19.096213318459782</v>
+        <v>12.041868518053953</v>
       </c>
       <c r="W1" s="0">
-        <v>19.126310803162522</v>
+        <v>12.016527707289921</v>
       </c>
       <c r="X1" s="0">
-        <v>19.144040646510199</v>
+        <v>11.993887498441213</v>
       </c>
       <c r="Y1" s="0">
-        <v>19.152575399581295</v>
+        <v>11.973427520412267</v>
       </c>
       <c r="Z1" s="0">
-        <v>19.154332468747523</v>
+        <v>11.954745097938263</v>
       </c>
       <c r="AA1" s="0">
-        <v>19.151152297301994</v>
+        <v>11.937526948663436</v>
       </c>
       <c r="AB1" s="0">
-        <v>19.144433627102895</v>
+        <v>11.921527019630414</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>20.885554919699334</v>
+        <v>19.105848604280428</v>
       </c>
       <c r="B2" s="0">
-        <v>19.745742797217254</v>
+        <v>18.111746283970501</v>
       </c>
       <c r="C2" s="0">
-        <v>18.62982173678424</v>
+        <v>17.120768242004743</v>
       </c>
       <c r="D2" s="0">
-        <v>17.504720589950207</v>
+        <v>16.160615077265401</v>
       </c>
       <c r="E2" s="0">
-        <v>16.596395334946841</v>
+        <v>15.319337969546709</v>
       </c>
       <c r="F2" s="0">
-        <v>15.911590204006348</v>
+        <v>14.673245464922708</v>
       </c>
       <c r="G2" s="0">
-        <v>15.243116208185878</v>
+        <v>14.038140827589798</v>
       </c>
       <c r="H2" s="0">
-        <v>14.922361376445606</v>
+        <v>13.784960888665987</v>
       </c>
       <c r="I2" s="0">
-        <v>15.874317352037002</v>
+        <v>14.8329475814368</v>
       </c>
       <c r="J2" s="0">
-        <v>17.753105650381091</v>
+        <v>16.895712308139718</v>
       </c>
       <c r="K2" s="0">
-        <v>19.670136762177126</v>
+        <v>18.043406864715269</v>
       </c>
       <c r="L2" s="0">
-        <v>21.165856492385934</v>
+        <v>17.905881253267466</v>
       </c>
       <c r="M2" s="0">
-        <v>22.389070257201922</v>
+        <v>17.686973386667795</v>
       </c>
       <c r="N2" s="0">
-        <v>23.37487958706479</v>
+        <v>17.529134578028835</v>
       </c>
       <c r="O2" s="0">
-        <v>24.164934055655166</v>
+        <v>17.41262480400313</v>
       </c>
       <c r="P2" s="0">
-        <v>24.788944509857775</v>
+        <v>17.323425373627519</v>
       </c>
       <c r="Q2" s="0">
-        <v>25.264558704702843</v>
+        <v>17.253619159871981</v>
       </c>
       <c r="R2" s="0">
-        <v>25.635868216618487</v>
+        <v>17.19828039057008</v>
       </c>
       <c r="S2" s="0">
-        <v>25.922775209897701</v>
+        <v>17.154011346537828</v>
       </c>
       <c r="T2" s="0">
-        <v>26.141804066055037</v>
+        <v>17.118331681744166</v>
       </c>
       <c r="U2" s="0">
-        <v>26.306572390022783</v>
+        <v>17.089370398990042</v>
       </c>
       <c r="V2" s="0">
-        <v>26.428224498201836</v>
+        <v>17.065693377433398</v>
       </c>
       <c r="W2" s="0">
-        <v>26.515823134841558</v>
+        <v>17.046187023933271</v>
       </c>
       <c r="X2" s="0">
-        <v>26.57669543085925</v>
+        <v>17.029984847831717</v>
       </c>
       <c r="Y2" s="0">
-        <v>26.616733815231509</v>
+        <v>17.013278378344129</v>
       </c>
       <c r="Z2" s="0">
-        <v>26.640653186845185</v>
+        <v>16.989951235911782</v>
       </c>
       <c r="AA2" s="0">
-        <v>26.652208587088161</v>
+        <v>16.968956752822752</v>
       </c>
       <c r="AB2" s="0">
-        <v>26.654376751372013</v>
+        <v>16.949913429077057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>31.735679532592755</v>
+        <v>30.989210064647402</v>
       </c>
       <c r="B3" s="0">
-        <v>30.323164168567551</v>
+        <v>29.614008914613731</v>
       </c>
       <c r="C3" s="0">
-        <v>28.868544609544678</v>
+        <v>28.19435169863646</v>
       </c>
       <c r="D3" s="0">
-        <v>27.446906861865326</v>
+        <v>26.774459174649863</v>
       </c>
       <c r="E3" s="0">
-        <v>26.191783259856464</v>
+        <v>25.527458605839421</v>
       </c>
       <c r="F3" s="0">
-        <v>25.194208520615984</v>
+        <v>24.543287374692525</v>
       </c>
       <c r="G3" s="0">
-        <v>24.241196762958904</v>
+        <v>23.603569247331738</v>
       </c>
       <c r="H3" s="0">
-        <v>23.648358317568899</v>
+        <v>23.026940165234926</v>
       </c>
       <c r="I3" s="0">
-        <v>24.294304182529665</v>
+        <v>23.712131056616833</v>
       </c>
       <c r="J3" s="0">
-        <v>26.032187269765743</v>
+        <v>25.519692422468797</v>
       </c>
       <c r="K3" s="0">
-        <v>28.034419820853351</v>
+        <v>26.78594658630152</v>
       </c>
       <c r="L3" s="0">
-        <v>29.979629557778232</v>
+        <v>26.832586188735782</v>
       </c>
       <c r="M3" s="0">
-        <v>31.66042498194431</v>
+        <v>26.732452663818954</v>
       </c>
       <c r="N3" s="0">
-        <v>33.096562228294552</v>
+        <v>26.64158730895884</v>
       </c>
       <c r="O3" s="0">
-        <v>34.194974465565139</v>
+        <v>26.562453231408735</v>
       </c>
       <c r="P3" s="0">
-        <v>35.106597390131832</v>
+        <v>26.49129072485233</v>
       </c>
       <c r="Q3" s="0">
-        <v>35.949222102213469</v>
+        <v>26.426340897155534</v>
       </c>
       <c r="R3" s="0">
-        <v>36.667580056216764</v>
+        <v>26.366936176440628</v>
       </c>
       <c r="S3" s="0">
-        <v>37.256940485633507</v>
+        <v>26.312739711377368</v>
       </c>
       <c r="T3" s="0">
-        <v>37.735662843182908</v>
+        <v>26.263471812749831</v>
       </c>
       <c r="U3" s="0">
-        <v>38.120419266063699</v>
+        <v>26.218822465042084</v>
       </c>
       <c r="V3" s="0">
-        <v>38.42607237601969</v>
+        <v>26.178444894323395</v>
       </c>
       <c r="W3" s="0">
-        <v>38.66567166916434</v>
+        <v>26.141967114349264</v>
       </c>
       <c r="X3" s="0">
-        <v>38.850530713624522</v>
+        <v>26.109011481059415</v>
       </c>
       <c r="Y3" s="0">
-        <v>38.990353691887108</v>
+        <v>26.079209043301237</v>
       </c>
       <c r="Z3" s="0">
-        <v>39.093387645054896</v>
+        <v>26.052208848068357</v>
       </c>
       <c r="AA3" s="0">
-        <v>39.166584716373876</v>
+        <v>26.027685423630239</v>
       </c>
       <c r="AB3" s="0">
-        <v>39.215763381151206</v>
+        <v>26.005342388441917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>15.096714262664086</v>
+        <v>13.935947047048575</v>
       </c>
       <c r="B4" s="0">
-        <v>14.140909939682043</v>
+        <v>12.994749683708891</v>
       </c>
       <c r="C4" s="0">
-        <v>13.180565607599235</v>
+        <v>12.094903927047087</v>
       </c>
       <c r="D4" s="0">
-        <v>12.255361624579825</v>
+        <v>11.255350092950552</v>
       </c>
       <c r="E4" s="0">
-        <v>11.549282387185727</v>
+        <v>10.613875275880162</v>
       </c>
       <c r="F4" s="0">
-        <v>11.094277173026228</v>
+        <v>10.196066641082092</v>
       </c>
       <c r="G4" s="0">
-        <v>10.635176743084475</v>
+        <v>9.7610687705775572</v>
       </c>
       <c r="H4" s="0">
-        <v>10.539844843090016</v>
+        <v>9.6825288039014499</v>
       </c>
       <c r="I4" s="0">
-        <v>11.54955261936065</v>
+        <v>10.661243770849008</v>
       </c>
       <c r="J4" s="0">
-        <v>13.288474883002724</v>
+        <v>12.336914178358366</v>
       </c>
       <c r="K4" s="0">
-        <v>14.875833824547335</v>
+        <v>13.123795182466131</v>
       </c>
       <c r="L4" s="0">
-        <v>16.025906996102702</v>
+        <v>12.868134335177349</v>
       </c>
       <c r="M4" s="0">
-        <v>16.869400992999736</v>
+        <v>12.64763362240766</v>
       </c>
       <c r="N4" s="0">
-        <v>17.46805025871496</v>
+        <v>12.501314396737683</v>
       </c>
       <c r="O4" s="0">
-        <v>17.805652999568842</v>
+        <v>12.384829766638985</v>
       </c>
       <c r="P4" s="0">
-        <v>17.906929036657143</v>
+        <v>12.260827823054571</v>
       </c>
       <c r="Q4" s="0">
-        <v>17.819849425062817</v>
+        <v>12.116159543574646</v>
       </c>
       <c r="R4" s="0">
-        <v>17.619547145984665</v>
+        <v>11.949788051794034</v>
       </c>
       <c r="S4" s="0">
-        <v>17.399493421261894</v>
+        <v>11.76634030874702</v>
       </c>
       <c r="T4" s="0">
-        <v>17.192318220093235</v>
+        <v>11.572793700121888</v>
       </c>
       <c r="U4" s="0">
-        <v>17.007041774125774</v>
+        <v>11.375751848277975</v>
       </c>
       <c r="V4" s="0">
-        <v>16.844331822696969</v>
+        <v>11.181806525229536</v>
       </c>
       <c r="W4" s="0">
-        <v>16.701668142933737</v>
+        <v>11.000380771407571</v>
       </c>
       <c r="X4" s="0">
-        <v>16.575672120289944</v>
+        <v>10.844532926797244</v>
       </c>
       <c r="Y4" s="0">
-        <v>16.463111502036394</v>
+        <v>10.714354442674265</v>
       </c>
       <c r="Z4" s="0">
-        <v>16.361257071504795</v>
+        <v>10.606271269830456</v>
       </c>
       <c r="AA4" s="0">
-        <v>16.267945264953745</v>
+        <v>10.516094559840377</v>
       </c>
       <c r="AB4" s="0">
-        <v>16.181518985269335</v>
+        <v>10.439933893143117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>20.885554919699334</v>
+        <v>19.105848604280428</v>
       </c>
       <c r="B5" s="0">
-        <v>19.745742797217254</v>
+        <v>18.111746283970501</v>
       </c>
       <c r="C5" s="0">
-        <v>18.62982173678424</v>
+        <v>17.120768242004743</v>
       </c>
       <c r="D5" s="0">
-        <v>17.504720589950207</v>
+        <v>16.160615077265401</v>
       </c>
       <c r="E5" s="0">
-        <v>16.596395334946841</v>
+        <v>15.319337969546709</v>
       </c>
       <c r="F5" s="0">
-        <v>15.911590204006348</v>
+        <v>14.673245464922708</v>
       </c>
       <c r="G5" s="0">
-        <v>15.243116208185878</v>
+        <v>14.038140827589798</v>
       </c>
       <c r="H5" s="0">
-        <v>14.922361376445606</v>
+        <v>13.784960888665987</v>
       </c>
       <c r="I5" s="0">
-        <v>15.874317352037002</v>
+        <v>14.8329475814368</v>
       </c>
       <c r="J5" s="0">
-        <v>17.753105650381091</v>
+        <v>16.895712308139718</v>
       </c>
       <c r="K5" s="0">
-        <v>19.670136762177126</v>
+        <v>18.043406864715269</v>
       </c>
       <c r="L5" s="0">
-        <v>21.165856492385934</v>
+        <v>17.905881253267466</v>
       </c>
       <c r="M5" s="0">
-        <v>22.38906980403214</v>
+        <v>17.686973386667795</v>
       </c>
       <c r="N5" s="0">
-        <v>23.347334677023625</v>
+        <v>17.529134370566361</v>
       </c>
       <c r="O5" s="0">
-        <v>23.997905713316815</v>
+        <v>17.404645356376406</v>
       </c>
       <c r="P5" s="0">
-        <v>24.345813590727669</v>
+        <v>17.275090623134442</v>
       </c>
       <c r="Q5" s="0">
-        <v>24.431127868492229</v>
+        <v>17.124078921085424</v>
       </c>
       <c r="R5" s="0">
-        <v>24.332115231886672</v>
+        <v>16.948182997361616</v>
       </c>
       <c r="S5" s="0">
-        <v>24.157740932231885</v>
+        <v>16.712046407059585</v>
       </c>
       <c r="T5" s="0">
-        <v>23.958627398590998</v>
+        <v>16.434556750896213</v>
       </c>
       <c r="U5" s="0">
-        <v>23.757596193296152</v>
+        <v>16.147422064693789</v>
       </c>
       <c r="V5" s="0">
-        <v>23.564995545371534</v>
+        <v>15.86013819781064</v>
       </c>
       <c r="W5" s="0">
-        <v>23.384787837117258</v>
+        <v>15.586275839699258</v>
       </c>
       <c r="X5" s="0">
-        <v>23.217758386707349</v>
+        <v>15.345280260716043</v>
       </c>
       <c r="Y5" s="0">
-        <v>23.060817775993133</v>
+        <v>15.139766917095663</v>
       </c>
       <c r="Z5" s="0">
-        <v>22.908550107302148</v>
+        <v>14.966362506149165</v>
       </c>
       <c r="AA5" s="0">
-        <v>22.770408045308692</v>
+        <v>14.820142091088504</v>
       </c>
       <c r="AB5" s="0">
-        <v>22.650396783212717</v>
+        <v>14.696096681979141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>31.735679532592755</v>
+        <v>30.989210064647402</v>
       </c>
       <c r="B6" s="0">
-        <v>30.323164168567551</v>
+        <v>29.614008914613731</v>
       </c>
       <c r="C6" s="0">
-        <v>28.868544609544678</v>
+        <v>28.19435169863646</v>
       </c>
       <c r="D6" s="0">
-        <v>27.446906861865326</v>
+        <v>26.774459174649863</v>
       </c>
       <c r="E6" s="0">
-        <v>26.191783259856464</v>
+        <v>25.527458605839421</v>
       </c>
       <c r="F6" s="0">
-        <v>25.194208520615984</v>
+        <v>24.543287374692525</v>
       </c>
       <c r="G6" s="0">
-        <v>24.241196762958904</v>
+        <v>23.603569247331738</v>
       </c>
       <c r="H6" s="0">
-        <v>23.648358317568899</v>
+        <v>23.026940165234926</v>
       </c>
       <c r="I6" s="0">
-        <v>24.294304182529665</v>
+        <v>23.712131056616833</v>
       </c>
       <c r="J6" s="0">
-        <v>26.032187269765743</v>
+        <v>25.519692422468797</v>
       </c>
       <c r="K6" s="0">
-        <v>28.034419820853351</v>
+        <v>26.78594658630152</v>
       </c>
       <c r="L6" s="0">
-        <v>29.979629557778232</v>
+        <v>26.832586188735782</v>
       </c>
       <c r="M6" s="0">
-        <v>31.660423684150206</v>
+        <v>26.732452663818954</v>
       </c>
       <c r="N6" s="0">
-        <v>33.06451929289441</v>
+        <v>26.641586789913468</v>
       </c>
       <c r="O6" s="0">
-        <v>34.030313253516077</v>
+        <v>26.553051550006877</v>
       </c>
       <c r="P6" s="0">
-        <v>34.65452339643879</v>
+        <v>26.432632692483953</v>
       </c>
       <c r="Q6" s="0">
-        <v>34.989267526173194</v>
+        <v>26.265272534719465</v>
       </c>
       <c r="R6" s="0">
-        <v>35.097920407763155</v>
+        <v>26.049313409188233</v>
       </c>
       <c r="S6" s="0">
-        <v>35.083983919248105</v>
+        <v>25.790239580997092</v>
       </c>
       <c r="T6" s="0">
-        <v>35.001852047310649</v>
+        <v>25.497327071697757</v>
       </c>
       <c r="U6" s="0">
-        <v>34.880325204293925</v>
+        <v>25.181188485317343</v>
       </c>
       <c r="V6" s="0">
-        <v>34.703566706976211</v>
+        <v>24.852053294925906</v>
       </c>
       <c r="W6" s="0">
-        <v>34.511879451662026</v>
+        <v>24.524246247961326</v>
       </c>
       <c r="X6" s="0">
-        <v>34.319259753547037</v>
+        <v>24.21907752159332</v>
       </c>
       <c r="Y6" s="0">
-        <v>34.129309266069583</v>
+        <v>23.943216239110988</v>
       </c>
       <c r="Z6" s="0">
-        <v>33.944001840245839</v>
+        <v>23.696801646939321</v>
       </c>
       <c r="AA6" s="0">
-        <v>33.764362692373624</v>
+        <v>23.477627889492201</v>
       </c>
       <c r="AB6" s="0">
-        <v>33.590864314374137</v>
+        <v>23.282602591413138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>15.096714262664086</v>
+        <v>13.935947047048575</v>
       </c>
       <c r="B7" s="0">
-        <v>14.140909939682043</v>
+        <v>12.994749683708891</v>
       </c>
       <c r="C7" s="0">
-        <v>13.180565607599235</v>
+        <v>12.094903927047087</v>
       </c>
       <c r="D7" s="0">
-        <v>12.255361624579825</v>
+        <v>11.255350092950552</v>
       </c>
       <c r="E7" s="0">
-        <v>11.549282387185727</v>
+        <v>10.613875275880162</v>
       </c>
       <c r="F7" s="0">
-        <v>11.094277173026228</v>
+        <v>10.196066641082092</v>
       </c>
       <c r="G7" s="0">
-        <v>10.635176743084475</v>
+        <v>9.7610687705775572</v>
       </c>
       <c r="H7" s="0">
-        <v>10.539844843090016</v>
+        <v>9.6825288039014499</v>
       </c>
       <c r="I7" s="0">
-        <v>11.54955261936065</v>
+        <v>10.661243770849008</v>
       </c>
       <c r="J7" s="0">
-        <v>13.288474883002724</v>
+        <v>12.336914178358366</v>
       </c>
       <c r="K7" s="0">
-        <v>14.875833824547335</v>
+        <v>13.123795182466131</v>
       </c>
       <c r="L7" s="0">
-        <v>16.025906996102702</v>
+        <v>12.868134335177349</v>
       </c>
       <c r="M7" s="0">
-        <v>16.869400992942374</v>
+        <v>12.64763362240766</v>
       </c>
       <c r="N7" s="0">
-        <v>17.46757151807828</v>
+        <v>12.501314396680167</v>
       </c>
       <c r="O7" s="0">
-        <v>17.80354404835089</v>
+        <v>12.384635077895439</v>
       </c>
       <c r="P7" s="0">
-        <v>17.902664862644947</v>
+        <v>12.260004681862446</v>
       </c>
       <c r="Q7" s="0">
-        <v>17.81345632486569</v>
+        <v>12.114555313959281</v>
       </c>
       <c r="R7" s="0">
-        <v>17.611912933627721</v>
+        <v>11.947456535313858</v>
       </c>
       <c r="S7" s="0">
-        <v>17.392376061484413</v>
+        <v>11.763431443365057</v>
       </c>
       <c r="T7" s="0">
-        <v>17.186704421483284</v>
+        <v>11.5694919916139</v>
       </c>
       <c r="U7" s="0">
-        <v>17.003262228724431</v>
+        <v>11.372242493866743</v>
       </c>
       <c r="V7" s="0">
-        <v>16.842382420143466</v>
+        <v>11.178267202334943</v>
       </c>
       <c r="W7" s="0">
-        <v>16.701404721674308</v>
+        <v>10.99715828160326</v>
       </c>
       <c r="X7" s="0">
-        <v>16.576910644243831</v>
+        <v>10.842194090686062</v>
       </c>
       <c r="Y7" s="0">
-        <v>16.465674478916181</v>
+        <v>10.713162698736424</v>
       </c>
       <c r="Z7" s="0">
-        <v>16.364991526519635</v>
+        <v>10.606263562225383</v>
       </c>
       <c r="AA7" s="0">
-        <v>16.272726595518542</v>
+        <v>10.517204312621324</v>
       </c>
       <c r="AB7" s="0">
-        <v>16.187248593057742</v>
+        <v>10.44205974930523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>20.885554919699334</v>
+        <v>19.105848604280428</v>
       </c>
       <c r="B8" s="0">
-        <v>19.745742797217254</v>
+        <v>18.111746283970501</v>
       </c>
       <c r="C8" s="0">
-        <v>18.62982173678424</v>
+        <v>17.120768242004743</v>
       </c>
       <c r="D8" s="0">
-        <v>17.504720589950207</v>
+        <v>16.160615077265401</v>
       </c>
       <c r="E8" s="0">
-        <v>16.596395334946841</v>
+        <v>15.319337969546709</v>
       </c>
       <c r="F8" s="0">
-        <v>15.911590204006348</v>
+        <v>14.673245464922708</v>
       </c>
       <c r="G8" s="0">
-        <v>15.243116208185878</v>
+        <v>14.038140827589798</v>
       </c>
       <c r="H8" s="0">
-        <v>14.922361376445606</v>
+        <v>13.784960888665987</v>
       </c>
       <c r="I8" s="0">
-        <v>15.874317352037002</v>
+        <v>14.8329475814368</v>
       </c>
       <c r="J8" s="0">
-        <v>17.753105650381091</v>
+        <v>16.895712308139718</v>
       </c>
       <c r="K8" s="0">
-        <v>19.670136762177126</v>
+        <v>18.043406864715269</v>
       </c>
       <c r="L8" s="0">
-        <v>21.165856492385934</v>
+        <v>17.905881253267466</v>
       </c>
       <c r="M8" s="0">
-        <v>22.389069803982125</v>
+        <v>17.686973386667795</v>
       </c>
       <c r="N8" s="0">
-        <v>23.34691226628382</v>
+        <v>17.529134370551677</v>
       </c>
       <c r="O8" s="0">
-        <v>23.995951237392738</v>
+        <v>17.404468660981287</v>
       </c>
       <c r="P8" s="0">
-        <v>24.341674175682201</v>
+        <v>17.274309757372809</v>
       </c>
       <c r="Q8" s="0">
-        <v>24.424644743294905</v>
+        <v>17.122499631177167</v>
       </c>
       <c r="R8" s="0">
-        <v>24.323965952137119</v>
+        <v>16.945812897714383</v>
       </c>
       <c r="S8" s="0">
-        <v>24.149580117516535</v>
+        <v>16.708833452286822</v>
       </c>
       <c r="T8" s="0">
-        <v>23.951577711750026</v>
+        <v>16.430823085013408</v>
       </c>
       <c r="U8" s="0">
-        <v>23.752203503054861</v>
+        <v>16.143365824776186</v>
       </c>
       <c r="V8" s="0">
-        <v>23.561452406828707</v>
+        <v>15.855953886761577</v>
       </c>
       <c r="W8" s="0">
-        <v>23.38309647237713</v>
+        <v>15.582330035989663</v>
       </c>
       <c r="X8" s="0">
-        <v>23.217829373051757</v>
+        <v>15.342185230888283</v>
       </c>
       <c r="Y8" s="0">
-        <v>23.062596504380039</v>
+        <v>15.137857557072653</v>
       </c>
       <c r="Z8" s="0">
-        <v>22.911865610641769</v>
+        <v>14.965734701168104</v>
       </c>
       <c r="AA8" s="0">
-        <v>22.774728038439697</v>
+        <v>14.820765460158954</v>
       </c>
       <c r="AB8" s="0">
-        <v>22.655923301842304</v>
+        <v>14.697886320007527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>31.735679532592755</v>
+        <v>30.989210064647402</v>
       </c>
       <c r="B9" s="0">
-        <v>30.323164168567551</v>
+        <v>29.614008914613731</v>
       </c>
       <c r="C9" s="0">
-        <v>28.868544609544678</v>
+        <v>28.19435169863646</v>
       </c>
       <c r="D9" s="0">
-        <v>27.446906861865326</v>
+        <v>26.774459174649863</v>
       </c>
       <c r="E9" s="0">
-        <v>26.191783259856464</v>
+        <v>25.527458605839421</v>
       </c>
       <c r="F9" s="0">
-        <v>25.194208520615984</v>
+        <v>24.543287374692525</v>
       </c>
       <c r="G9" s="0">
-        <v>24.241196762958904</v>
+        <v>23.603569247331738</v>
       </c>
       <c r="H9" s="0">
-        <v>23.648358317568899</v>
+        <v>23.026940165234926</v>
       </c>
       <c r="I9" s="0">
-        <v>24.294304182529665</v>
+        <v>23.712131056616833</v>
       </c>
       <c r="J9" s="0">
-        <v>26.032187269765743</v>
+        <v>25.519692422468797</v>
       </c>
       <c r="K9" s="0">
-        <v>28.034419820853351</v>
+        <v>26.78594658630152</v>
       </c>
       <c r="L9" s="0">
-        <v>29.979629557778232</v>
+        <v>26.832586188735782</v>
       </c>
       <c r="M9" s="0">
-        <v>31.660423684076022</v>
+        <v>26.732452663818954</v>
       </c>
       <c r="N9" s="0">
-        <v>33.064166407466253</v>
+        <v>26.641586789839096</v>
       </c>
       <c r="O9" s="0">
-        <v>34.028758876817008</v>
+        <v>26.55289559072769</v>
       </c>
       <c r="P9" s="0">
-        <v>34.651120748122764</v>
+        <v>26.431914946568149</v>
       </c>
       <c r="Q9" s="0">
-        <v>34.983759257829263</v>
+        <v>26.263762607490886</v>
       </c>
       <c r="R9" s="0">
-        <v>35.09070841287307</v>
+        <v>26.046961684444341</v>
       </c>
       <c r="S9" s="0">
-        <v>35.07633396451719</v>
+        <v>25.787111065101648</v>
       </c>
       <c r="T9" s="0">
-        <v>34.994749634969111</v>
+        <v>25.493552874641274</v>
       </c>
       <c r="U9" s="0">
-        <v>34.874358964901312</v>
+        <v>25.176934698917261</v>
       </c>
       <c r="V9" s="0">
-        <v>34.698672199279656</v>
+        <v>24.847501416400434</v>
       </c>
       <c r="W9" s="0">
-        <v>34.508674163147589</v>
+        <v>24.519740039861247</v>
       </c>
       <c r="X9" s="0">
-        <v>34.317772452866713</v>
+        <v>24.215217164147941</v>
       </c>
       <c r="Y9" s="0">
-        <v>34.12950941109515</v>
+        <v>23.940407697039266</v>
       </c>
       <c r="Z9" s="0">
-        <v>33.945828975496894</v>
+        <v>23.695246057824466</v>
       </c>
       <c r="AA9" s="0">
-        <v>33.767743672141265</v>
+        <v>23.477396783277236</v>
       </c>
       <c r="AB9" s="0">
-        <v>33.595722992612082</v>
+        <v>23.28369434259308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>15.096714262664086</v>
+        <v>13.935947047048575</v>
       </c>
       <c r="B10" s="0">
-        <v>14.140909939682043</v>
+        <v>12.994749683708891</v>
       </c>
       <c r="C10" s="0">
-        <v>13.180565607599235</v>
+        <v>12.094903927047087</v>
       </c>
       <c r="D10" s="0">
-        <v>12.255361624579825</v>
+        <v>11.255350092950552</v>
       </c>
       <c r="E10" s="0">
-        <v>11.549282387185727</v>
+        <v>10.613875275880162</v>
       </c>
       <c r="F10" s="0">
-        <v>11.094277173026228</v>
+        <v>10.196066641082092</v>
       </c>
       <c r="G10" s="0">
-        <v>10.635176743084475</v>
+        <v>9.7610687705775572</v>
       </c>
       <c r="H10" s="0">
-        <v>10.539844843090016</v>
+        <v>9.6825288039014499</v>
       </c>
       <c r="I10" s="0">
-        <v>11.54955261936065</v>
+        <v>10.661243770849008</v>
       </c>
       <c r="J10" s="0">
-        <v>13.288474883002724</v>
+        <v>12.336914178358366</v>
       </c>
       <c r="K10" s="0">
-        <v>14.875833824547335</v>
+        <v>13.123795182466131</v>
       </c>
       <c r="L10" s="0">
-        <v>16.025906996102702</v>
+        <v>12.868134335177349</v>
       </c>
       <c r="M10" s="0">
-        <v>16.869399081903367</v>
+        <v>12.64763362240766</v>
       </c>
       <c r="N10" s="0">
-        <v>17.06073157696779</v>
+        <v>12.501313123021285</v>
       </c>
       <c r="O10" s="0">
-        <v>16.47661205287913</v>
+        <v>12.243920190199329</v>
       </c>
       <c r="P10" s="0">
-        <v>15.463647926481752</v>
+        <v>11.804134210296287</v>
       </c>
       <c r="Q10" s="0">
-        <v>14.266926272675041</v>
+        <v>11.266516383913645</v>
       </c>
       <c r="R10" s="0">
-        <v>13.348448331222684</v>
+        <v>10.684438472649138</v>
       </c>
       <c r="S10" s="0">
-        <v>12.806774677264169</v>
+        <v>10.094319225362069</v>
       </c>
       <c r="T10" s="0">
-        <v>12.451531947079392</v>
+        <v>9.5206976771154519</v>
       </c>
       <c r="U10" s="0">
-        <v>12.19999352474934</v>
+        <v>8.9788936158127584</v>
       </c>
       <c r="V10" s="0">
-        <v>12.010621475479169</v>
+        <v>8.4771101238528139</v>
       </c>
       <c r="W10" s="0">
-        <v>11.864641864802177</v>
+        <v>8.1045974729915873</v>
       </c>
       <c r="X10" s="0">
-        <v>11.747515391308941</v>
+        <v>7.8688251545802777</v>
       </c>
       <c r="Y10" s="0">
-        <v>11.64997545134284</v>
+        <v>7.7071674588759915</v>
       </c>
       <c r="Z10" s="0">
-        <v>11.566014056276851</v>
+        <v>7.5907804252499478</v>
       </c>
       <c r="AA10" s="0">
-        <v>11.491694464815112</v>
+        <v>7.5036329430842379</v>
       </c>
       <c r="AB10" s="0">
-        <v>11.424414648085321</v>
+        <v>7.4358396747101958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>20.885554919699334</v>
+        <v>19.105848604280428</v>
       </c>
       <c r="B11" s="0">
-        <v>19.745742797217254</v>
+        <v>18.111746283970501</v>
       </c>
       <c r="C11" s="0">
-        <v>18.62982173678424</v>
+        <v>17.120768242004743</v>
       </c>
       <c r="D11" s="0">
-        <v>17.504720589950207</v>
+        <v>16.160615077265401</v>
       </c>
       <c r="E11" s="0">
-        <v>16.596395334946841</v>
+        <v>15.319337969546709</v>
       </c>
       <c r="F11" s="0">
-        <v>15.911590204006348</v>
+        <v>14.673245464922708</v>
       </c>
       <c r="G11" s="0">
-        <v>15.243116208185878</v>
+        <v>14.038140827589798</v>
       </c>
       <c r="H11" s="0">
-        <v>14.922361376445606</v>
+        <v>13.784960888665987</v>
       </c>
       <c r="I11" s="0">
-        <v>15.874317352037002</v>
+        <v>14.8329475814368</v>
       </c>
       <c r="J11" s="0">
-        <v>17.753105650381091</v>
+        <v>16.895712308139718</v>
       </c>
       <c r="K11" s="0">
-        <v>19.670136762177126</v>
+        <v>18.043406864715269</v>
       </c>
       <c r="L11" s="0">
-        <v>21.165856492385934</v>
+        <v>17.905881253267466</v>
       </c>
       <c r="M11" s="0">
-        <v>22.3890673659578</v>
+        <v>17.686973386667795</v>
       </c>
       <c r="N11" s="0">
-        <v>22.768118319860626</v>
+        <v>17.529133819258071</v>
       </c>
       <c r="O11" s="0">
-        <v>22.01449484648894</v>
+        <v>17.195585199668855</v>
       </c>
       <c r="P11" s="0">
-        <v>20.556309382207907</v>
+        <v>16.570775386654578</v>
       </c>
       <c r="Q11" s="0">
-        <v>18.759544805288748</v>
+        <v>15.778606053205444</v>
       </c>
       <c r="R11" s="0">
-        <v>17.333088854722057</v>
+        <v>14.906286651676281</v>
       </c>
       <c r="S11" s="0">
-        <v>16.452037546266396</v>
+        <v>14.015129376691206</v>
       </c>
       <c r="T11" s="0">
-        <v>15.85981890121738</v>
+        <v>13.106354282861233</v>
       </c>
       <c r="U11" s="0">
-        <v>15.440923854457765</v>
+        <v>12.247296848436637</v>
       </c>
       <c r="V11" s="0">
-        <v>15.115590847828448</v>
+        <v>11.455106880067898</v>
       </c>
       <c r="W11" s="0">
-        <v>14.874076509131635</v>
+        <v>10.854320699550577</v>
       </c>
       <c r="X11" s="0">
-        <v>14.683029577651173</v>
+        <v>10.462787615573561</v>
       </c>
       <c r="Y11" s="0">
-        <v>14.527115518100196</v>
+        <v>10.191477201864442</v>
       </c>
       <c r="Z11" s="0">
-        <v>14.396019174178544</v>
+        <v>9.9955433705579129</v>
       </c>
       <c r="AA11" s="0">
-        <v>14.282732143378436</v>
+        <v>9.849342253896582</v>
       </c>
       <c r="AB11" s="0">
-        <v>14.182460355400016</v>
+        <v>9.7368366420134098</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>31.735679532592755</v>
+        <v>30.989210064647402</v>
       </c>
       <c r="B12" s="0">
-        <v>30.323164168567551</v>
+        <v>29.614008914613731</v>
       </c>
       <c r="C12" s="0">
-        <v>28.868544609544678</v>
+        <v>28.19435169863646</v>
       </c>
       <c r="D12" s="0">
-        <v>27.446906861865326</v>
+        <v>26.774459174649863</v>
       </c>
       <c r="E12" s="0">
-        <v>26.191783259856464</v>
+        <v>25.527458605839421</v>
       </c>
       <c r="F12" s="0">
-        <v>25.194208520615984</v>
+        <v>24.543287374692525</v>
       </c>
       <c r="G12" s="0">
-        <v>24.241196762958904</v>
+        <v>23.603569247331738</v>
       </c>
       <c r="H12" s="0">
-        <v>23.648358317568899</v>
+        <v>23.026940165234926</v>
       </c>
       <c r="I12" s="0">
-        <v>24.294304182529665</v>
+        <v>23.712131056616833</v>
       </c>
       <c r="J12" s="0">
-        <v>26.032187269765743</v>
+        <v>25.519692422468797</v>
       </c>
       <c r="K12" s="0">
-        <v>28.034419820853351</v>
+        <v>26.78594658630152</v>
       </c>
       <c r="L12" s="0">
-        <v>29.979629557778232</v>
+        <v>26.832586188735782</v>
       </c>
       <c r="M12" s="0">
-        <v>31.660419085899093</v>
+        <v>26.732452663818954</v>
       </c>
       <c r="N12" s="0">
-        <v>32.214939917157139</v>
+        <v>26.641584285838146</v>
       </c>
       <c r="O12" s="0">
-        <v>30.995683449809405</v>
+        <v>26.218252774333369</v>
       </c>
       <c r="P12" s="0">
-        <v>28.71576450726986</v>
+        <v>25.258573145501302</v>
       </c>
       <c r="Q12" s="0">
-        <v>26.014571027734263</v>
+        <v>23.950989213175227</v>
       </c>
       <c r="R12" s="0">
-        <v>23.763693934543497</v>
+        <v>22.450728132072474</v>
       </c>
       <c r="S12" s="0">
-        <v>22.29366175315073</v>
+        <v>20.880206158930168</v>
       </c>
       <c r="T12" s="0">
-        <v>21.276119883791569</v>
+        <v>19.329502836777007</v>
       </c>
       <c r="U12" s="0">
-        <v>20.540836634828583</v>
+        <v>17.858827225402745</v>
       </c>
       <c r="V12" s="0">
-        <v>19.991864401545421</v>
+        <v>16.503107418951128</v>
       </c>
       <c r="W12" s="0">
-        <v>19.570546430922512</v>
+        <v>15.447543260595983</v>
       </c>
       <c r="X12" s="0">
-        <v>19.238895696286356</v>
+        <v>14.727459615535137</v>
       </c>
       <c r="Y12" s="0">
-        <v>18.971382639105869</v>
+        <v>14.212682827983574</v>
       </c>
       <c r="Z12" s="0">
-        <v>18.750437900317571</v>
+        <v>13.831736246688681</v>
       </c>
       <c r="AA12" s="0">
-        <v>18.563777632388252</v>
+        <v>13.542065056645219</v>
       </c>
       <c r="AB12" s="0">
-        <v>18.402713213196872</v>
+        <v>13.316492297255159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>15.096714262664086</v>
+        <v>13.935947047048575</v>
       </c>
       <c r="B13" s="0">
-        <v>14.140909939682043</v>
+        <v>12.994749683708891</v>
       </c>
       <c r="C13" s="0">
-        <v>13.180565607599235</v>
+        <v>12.094903927047087</v>
       </c>
       <c r="D13" s="0">
-        <v>12.255361624579825</v>
+        <v>11.255350092950552</v>
       </c>
       <c r="E13" s="0">
-        <v>11.549282387185727</v>
+        <v>10.613875275880162</v>
       </c>
       <c r="F13" s="0">
-        <v>11.094277173026228</v>
+        <v>10.196066641082092</v>
       </c>
       <c r="G13" s="0">
-        <v>10.635176743084475</v>
+        <v>9.7610687705775572</v>
       </c>
       <c r="H13" s="0">
-        <v>10.539844843090016</v>
+        <v>9.6825288039014499</v>
       </c>
       <c r="I13" s="0">
-        <v>11.54955261936065</v>
+        <v>10.661243770849008</v>
       </c>
       <c r="J13" s="0">
-        <v>13.288474883002724</v>
+        <v>12.336914178358366</v>
       </c>
       <c r="K13" s="0">
-        <v>14.875833824547335</v>
+        <v>13.123795182466131</v>
       </c>
       <c r="L13" s="0">
-        <v>16.025906996102702</v>
+        <v>12.868134335177349</v>
       </c>
       <c r="M13" s="0">
-        <v>16.869398681703519</v>
+        <v>12.64763362240766</v>
       </c>
       <c r="N13" s="0">
-        <v>16.977471574987906</v>
+        <v>12.501312807762801</v>
       </c>
       <c r="O13" s="0">
-        <v>16.211491507586487</v>
+        <v>12.209410533237067</v>
       </c>
       <c r="P13" s="0">
-        <v>14.990908568321768</v>
+        <v>11.695505770561272</v>
       </c>
       <c r="Q13" s="0">
-        <v>13.604345547225233</v>
+        <v>11.07114768667099</v>
       </c>
       <c r="R13" s="0">
-        <v>12.587378962911618</v>
+        <v>10.403413822605119</v>
       </c>
       <c r="S13" s="0">
-        <v>12.029362823923261</v>
+        <v>9.7355539628234897</v>
       </c>
       <c r="T13" s="0">
-        <v>11.688416693215277</v>
+        <v>9.0950262358719432</v>
       </c>
       <c r="U13" s="0">
-        <v>11.458019397988636</v>
+        <v>8.4977658199602395</v>
       </c>
       <c r="V13" s="0">
-        <v>11.294027005311115</v>
+        <v>7.9512841132273921</v>
       </c>
       <c r="W13" s="0">
-        <v>11.171709806149572</v>
+        <v>7.5612142653343186</v>
       </c>
       <c r="X13" s="0">
-        <v>11.074338296797977</v>
+        <v>7.3306024973799415</v>
       </c>
       <c r="Y13" s="0">
-        <v>10.991654524553713</v>
+        <v>7.1807838473024876</v>
       </c>
       <c r="Z13" s="0">
-        <v>10.920921168178136</v>
+        <v>7.0770866378120099</v>
       </c>
       <c r="AA13" s="0">
-        <v>10.858410309171454</v>
+        <v>7.0015147145039576</v>
       </c>
       <c r="AB13" s="0">
-        <v>10.801748518978002</v>
+        <v>6.9437049940165796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>20.885554919699334</v>
+        <v>19.105848604280428</v>
       </c>
       <c r="B14" s="0">
-        <v>19.745742797217254</v>
+        <v>18.111746283970501</v>
       </c>
       <c r="C14" s="0">
-        <v>18.62982173678424</v>
+        <v>17.120768242004743</v>
       </c>
       <c r="D14" s="0">
-        <v>17.504720589950207</v>
+        <v>16.160615077265401</v>
       </c>
       <c r="E14" s="0">
-        <v>16.596395334946841</v>
+        <v>15.319337969546709</v>
       </c>
       <c r="F14" s="0">
-        <v>15.911590204006348</v>
+        <v>14.673245464922708</v>
       </c>
       <c r="G14" s="0">
-        <v>15.243116208185878</v>
+        <v>14.038140827589798</v>
       </c>
       <c r="H14" s="0">
-        <v>14.922361376445606</v>
+        <v>13.784960888665987</v>
       </c>
       <c r="I14" s="0">
-        <v>15.874317352037002</v>
+        <v>14.8329475814368</v>
       </c>
       <c r="J14" s="0">
-        <v>17.753105650381091</v>
+        <v>16.895712308139718</v>
       </c>
       <c r="K14" s="0">
-        <v>19.670136762177126</v>
+        <v>18.043406864715269</v>
       </c>
       <c r="L14" s="0">
-        <v>21.165856492385934</v>
+        <v>17.905881253267466</v>
       </c>
       <c r="M14" s="0">
-        <v>22.389066875774862</v>
+        <v>17.686973386667795</v>
       </c>
       <c r="N14" s="0">
-        <v>22.65441601494382</v>
+        <v>17.529133679199315</v>
       </c>
       <c r="O14" s="0">
-        <v>21.636333216299022</v>
+        <v>17.142638493918842</v>
       </c>
       <c r="P14" s="0">
-        <v>19.843854201866986</v>
+        <v>16.394857282602157</v>
       </c>
       <c r="Q14" s="0">
-        <v>17.78379727577919</v>
+        <v>15.449127340303303</v>
       </c>
       <c r="R14" s="0">
-        <v>16.172065279946022</v>
+        <v>14.418055818725785</v>
       </c>
       <c r="S14" s="0">
-        <v>15.2309750228829</v>
+        <v>13.378600360992371</v>
       </c>
       <c r="T14" s="0">
-        <v>14.623494357890429</v>
+        <v>12.367006103816943</v>
       </c>
       <c r="U14" s="0">
-        <v>14.226703091554977</v>
+        <v>11.408165036054944</v>
       </c>
       <c r="V14" s="0">
-        <v>13.951437685132705</v>
+        <v>10.538156567913955</v>
       </c>
       <c r="W14" s="0">
-        <v>13.752346963243022</v>
+        <v>9.9040690128981925</v>
       </c>
       <c r="X14" s="0">
-        <v>13.602189051714065</v>
+        <v>9.5186134195182604</v>
       </c>
       <c r="Y14" s="0">
-        <v>13.48407899288055</v>
+        <v>9.2682919115497242</v>
       </c>
       <c r="Z14" s="0">
-        <v>13.387339661713872</v>
+        <v>9.0973701822873032</v>
       </c>
       <c r="AA14" s="0">
-        <v>13.305128308522651</v>
+        <v>8.9755173318400363</v>
       </c>
       <c r="AB14" s="0">
-        <v>13.233015355774009</v>
+        <v>8.8849237111409103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>31.735679532592755</v>
+        <v>30.989210064647402</v>
       </c>
       <c r="B15" s="0">
-        <v>30.323164168567551</v>
+        <v>29.614008914613731</v>
       </c>
       <c r="C15" s="0">
-        <v>28.868544609544678</v>
+        <v>28.19435169863646</v>
       </c>
       <c r="D15" s="0">
-        <v>27.446906861865326</v>
+        <v>26.774459174649863</v>
       </c>
       <c r="E15" s="0">
-        <v>26.191783259856464</v>
+        <v>25.527458605839421</v>
       </c>
       <c r="F15" s="0">
-        <v>25.194208520615984</v>
+        <v>24.543287374692525</v>
       </c>
       <c r="G15" s="0">
-        <v>24.241196762958904</v>
+        <v>23.603569247331738</v>
       </c>
       <c r="H15" s="0">
-        <v>23.648358317568899</v>
+        <v>23.026940165234926</v>
       </c>
       <c r="I15" s="0">
-        <v>24.294304182529665</v>
+        <v>23.712131056616833</v>
       </c>
       <c r="J15" s="0">
-        <v>26.032187269765743</v>
+        <v>25.519692422468797</v>
       </c>
       <c r="K15" s="0">
-        <v>28.034419820853351</v>
+        <v>26.78594658630152</v>
       </c>
       <c r="L15" s="0">
-        <v>29.979629557778232</v>
+        <v>26.832586188735782</v>
       </c>
       <c r="M15" s="0">
-        <v>31.660418116205058</v>
+        <v>26.732452663818954</v>
       </c>
       <c r="N15" s="0">
-        <v>32.041719617602986</v>
+        <v>26.641583655375559</v>
       </c>
       <c r="O15" s="0">
-        <v>30.393943642453408</v>
+        <v>26.133972194159462</v>
       </c>
       <c r="P15" s="0">
-        <v>27.60935870298222</v>
+        <v>24.966554253751585</v>
       </c>
       <c r="Q15" s="0">
-        <v>24.392344720111247</v>
+        <v>23.384800323478089</v>
       </c>
       <c r="R15" s="0">
-        <v>21.800789784516635</v>
+        <v>21.587823345010559</v>
       </c>
       <c r="S15" s="0">
-        <v>20.181604124719133</v>
+        <v>19.730085374532518</v>
       </c>
       <c r="T15" s="0">
-        <v>19.123976379888035</v>
+        <v>17.922884273380962</v>
       </c>
       <c r="U15" s="0">
-        <v>18.407105877947295</v>
+        <v>16.238155598776931</v>
       </c>
       <c r="V15" s="0">
-        <v>17.906187438980524</v>
+        <v>14.714886242581644</v>
       </c>
       <c r="W15" s="0">
-        <v>17.546046074811173</v>
+        <v>13.572336476576286</v>
       </c>
       <c r="X15" s="0">
-        <v>17.279404335871803</v>
+        <v>12.840802492680069</v>
       </c>
       <c r="Y15" s="0">
-        <v>17.075713496798436</v>
+        <v>12.352434473805902</v>
       </c>
       <c r="Z15" s="0">
-        <v>16.914896255619613</v>
+        <v>12.01529217924756</v>
       </c>
       <c r="AA15" s="0">
-        <v>16.788872018962596</v>
+        <v>11.775607610600703</v>
       </c>
       <c r="AB15" s="0">
-        <v>16.685059620119617</v>
+        <v>11.600190064651201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>15.096714262664086</v>
+        <v>13.935947047048575</v>
       </c>
       <c r="B16" s="0">
-        <v>14.140909939682043</v>
+        <v>12.994749683708891</v>
       </c>
       <c r="C16" s="0">
-        <v>13.180565607599235</v>
+        <v>12.094903927047087</v>
       </c>
       <c r="D16" s="0">
-        <v>12.255361624579825</v>
+        <v>11.255350092950552</v>
       </c>
       <c r="E16" s="0">
-        <v>11.549282387185727</v>
+        <v>10.613875275880162</v>
       </c>
       <c r="F16" s="0">
-        <v>11.094277173026228</v>
+        <v>10.196066641082092</v>
       </c>
       <c r="G16" s="0">
-        <v>10.635176743084475</v>
+        <v>9.7610687705775572</v>
       </c>
       <c r="H16" s="0">
-        <v>10.539844843090016</v>
+        <v>9.6825288039014499</v>
       </c>
       <c r="I16" s="0">
-        <v>11.54955261936065</v>
+        <v>10.661243770849008</v>
       </c>
       <c r="J16" s="0">
-        <v>13.288474883002724</v>
+        <v>12.336914178358366</v>
       </c>
       <c r="K16" s="0">
-        <v>14.875833824547335</v>
+        <v>13.123795182466131</v>
       </c>
       <c r="L16" s="0">
-        <v>16.025906996102702</v>
+        <v>12.868134335177349</v>
       </c>
       <c r="M16" s="0">
-        <v>16.869400543377228</v>
+        <v>12.64763362240766</v>
       </c>
       <c r="N16" s="0">
-        <v>16.924678222374162</v>
+        <v>12.501305835701615</v>
       </c>
       <c r="O16" s="0">
-        <v>15.96830587277212</v>
+        <v>12.196006778791096</v>
       </c>
       <c r="P16" s="0">
-        <v>14.474646946400103</v>
+        <v>11.633634923448559</v>
       </c>
       <c r="Q16" s="0">
-        <v>12.792988350062402</v>
+        <v>10.934717287026716</v>
       </c>
       <c r="R16" s="0">
-        <v>11.513233067583826</v>
+        <v>10.176610189630756</v>
       </c>
       <c r="S16" s="0">
-        <v>10.775257328174838</v>
+        <v>9.4114096658399937</v>
       </c>
       <c r="T16" s="0">
-        <v>10.311475412103006</v>
+        <v>8.6738116717054723</v>
       </c>
       <c r="U16" s="0">
-        <v>9.9992290856009749</v>
+        <v>7.9850136865922483</v>
       </c>
       <c r="V16" s="0">
-        <v>9.7774534214841502</v>
+        <v>7.3557863629099156</v>
       </c>
       <c r="W16" s="0">
-        <v>9.6121403371666645</v>
+        <v>6.8945552858706538</v>
       </c>
       <c r="X16" s="0">
-        <v>9.4830416916345008</v>
+        <v>6.6120804348897835</v>
       </c>
       <c r="Y16" s="0">
-        <v>9.37767277423543</v>
+        <v>6.4239976276425894</v>
       </c>
       <c r="Z16" s="0">
-        <v>9.288185671370595</v>
+        <v>6.2914133008803734</v>
       </c>
       <c r="AA16" s="0">
-        <v>9.2095868591711429</v>
+        <v>6.1934875031440084</v>
       </c>
       <c r="AB16" s="0">
-        <v>9.138670560533857</v>
+        <v>6.1178839619452052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>20.885554919699334</v>
+        <v>19.105848604280428</v>
       </c>
       <c r="B17" s="0">
-        <v>19.745742797217254</v>
+        <v>18.111746283970501</v>
       </c>
       <c r="C17" s="0">
-        <v>18.62982173678424</v>
+        <v>17.120768242004743</v>
       </c>
       <c r="D17" s="0">
-        <v>17.504720589950207</v>
+        <v>16.160615077265401</v>
       </c>
       <c r="E17" s="0">
-        <v>16.596395334946841</v>
+        <v>15.319337969546709</v>
       </c>
       <c r="F17" s="0">
-        <v>15.911590204006348</v>
+        <v>14.673245464922708</v>
       </c>
       <c r="G17" s="0">
-        <v>15.243116208185878</v>
+        <v>14.038140827589798</v>
       </c>
       <c r="H17" s="0">
-        <v>14.922361376445606</v>
+        <v>13.784960888665987</v>
       </c>
       <c r="I17" s="0">
-        <v>15.874317352037002</v>
+        <v>14.8329475814368</v>
       </c>
       <c r="J17" s="0">
-        <v>17.753105650381091</v>
+        <v>16.895712308139718</v>
       </c>
       <c r="K17" s="0">
-        <v>19.670136762177126</v>
+        <v>18.043406864715269</v>
       </c>
       <c r="L17" s="0">
-        <v>21.165856492385934</v>
+        <v>17.905881253267466</v>
       </c>
       <c r="M17" s="0">
-        <v>22.389068307203679</v>
+        <v>17.686973386667795</v>
       </c>
       <c r="N17" s="0">
-        <v>22.603125913857571</v>
+        <v>17.529132426039215</v>
       </c>
       <c r="O17" s="0">
-        <v>21.389613111737479</v>
+        <v>17.129841976760353</v>
       </c>
       <c r="P17" s="0">
-        <v>19.318564233582837</v>
+        <v>16.330284043889304</v>
       </c>
       <c r="Q17" s="0">
-        <v>16.891632172713482</v>
+        <v>15.3000255755626</v>
       </c>
       <c r="R17" s="0">
-        <v>14.96636225533333</v>
+        <v>14.146748137827851</v>
       </c>
       <c r="S17" s="0">
-        <v>13.789908658206658</v>
+        <v>12.926797098258483</v>
       </c>
       <c r="T17" s="0">
-        <v>13.029581896721179</v>
+        <v>11.748668043513085</v>
       </c>
       <c r="U17" s="0">
-        <v>12.513753446718081</v>
+        <v>10.65257615625543</v>
       </c>
       <c r="V17" s="0">
-        <v>12.138335429936589</v>
+        <v>9.6591536305903549</v>
       </c>
       <c r="W17" s="0">
-        <v>11.863769735024093</v>
+        <v>8.9175185662256862</v>
       </c>
       <c r="X17" s="0">
-        <v>11.655668635231331</v>
+        <v>8.451690135659117</v>
       </c>
       <c r="Y17" s="0">
-        <v>11.491984220893713</v>
+        <v>8.1418764319650059</v>
       </c>
       <c r="Z17" s="0">
-        <v>11.358364736550479</v>
+        <v>7.9258600998875881</v>
       </c>
       <c r="AA17" s="0">
-        <v>11.245384233399754</v>
+        <v>7.7690277196428834</v>
       </c>
       <c r="AB17" s="0">
-        <v>11.146814603156436</v>
+        <v>7.6505791282896638</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>31.735679532592755</v>
+        <v>30.989210064647402</v>
       </c>
       <c r="B18" s="0">
-        <v>30.323164168567551</v>
+        <v>29.614008914613731</v>
       </c>
       <c r="C18" s="0">
-        <v>28.868544609544678</v>
+        <v>28.19435169863646</v>
       </c>
       <c r="D18" s="0">
-        <v>27.446906861865326</v>
+        <v>26.774459174649863</v>
       </c>
       <c r="E18" s="0">
-        <v>26.191783259856464</v>
+        <v>25.527458605839421</v>
       </c>
       <c r="F18" s="0">
-        <v>25.194208520615984</v>
+        <v>24.543287374692525</v>
       </c>
       <c r="G18" s="0">
-        <v>24.241196762958904</v>
+        <v>23.603569247331738</v>
       </c>
       <c r="H18" s="0">
-        <v>23.648358317568899</v>
+        <v>23.026940165234926</v>
       </c>
       <c r="I18" s="0">
-        <v>24.294304182529665</v>
+        <v>23.712131056616833</v>
       </c>
       <c r="J18" s="0">
-        <v>26.032187269765743</v>
+        <v>25.519692422468797</v>
       </c>
       <c r="K18" s="0">
-        <v>28.034419820853351</v>
+        <v>26.78594658630152</v>
       </c>
       <c r="L18" s="0">
-        <v>29.979629557778232</v>
+        <v>26.832586188735782</v>
       </c>
       <c r="M18" s="0">
-        <v>31.660416788116134</v>
+        <v>26.732452663818954</v>
       </c>
       <c r="N18" s="0">
-        <v>31.985386315176378</v>
+        <v>26.641585271496659</v>
       </c>
       <c r="O18" s="0">
-        <v>30.153482558615437</v>
+        <v>26.120131433893199</v>
       </c>
       <c r="P18" s="0">
-        <v>27.020808572801521</v>
+        <v>24.893129378632004</v>
       </c>
       <c r="Q18" s="0">
-        <v>23.342856559205956</v>
+        <v>23.208934787042274</v>
       </c>
       <c r="R18" s="0">
-        <v>20.353825187404503</v>
+        <v>21.279616524231926</v>
       </c>
       <c r="S18" s="0">
-        <v>18.429756818235006</v>
+        <v>19.27374268004489</v>
       </c>
       <c r="T18" s="0">
-        <v>17.144107070007536</v>
+        <v>17.315427398157592</v>
       </c>
       <c r="U18" s="0">
-        <v>16.25697689533806</v>
+        <v>15.486748075345259</v>
       </c>
       <c r="V18" s="0">
-        <v>15.621940544688712</v>
+        <v>13.833562229607734</v>
       </c>
       <c r="W18" s="0">
-        <v>15.161446316256223</v>
+        <v>12.574597032879426</v>
       </c>
       <c r="X18" s="0">
-        <v>14.818967239681221</v>
+        <v>11.749726344195929</v>
       </c>
       <c r="Y18" s="0">
-        <v>14.556906999556013</v>
+        <v>11.188965447981944</v>
       </c>
       <c r="Z18" s="0">
-        <v>14.350125691532465</v>
+        <v>10.794945340233618</v>
       </c>
       <c r="AA18" s="0">
-        <v>14.181684474970972</v>
+        <v>10.509739252647815</v>
       </c>
       <c r="AB18" s="0">
-        <v>14.040115440703161</v>
+        <v>10.297095886189631</v>
       </c>
     </row>
   </sheetData>

--- a/England - submitted 19Jun25/prev_tbl.xlsx
+++ b/England - submitted 19Jun25/prev_tbl.xlsx
@@ -91,1550 +91,1550 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>13.935947047048575</v>
+        <v>40.451812397473546</v>
       </c>
       <c r="B1" s="0">
-        <v>12.994749683708891</v>
+        <v>37.979789365298736</v>
       </c>
       <c r="C1" s="0">
-        <v>12.094903927047087</v>
+        <v>35.488690584982045</v>
       </c>
       <c r="D1" s="0">
-        <v>11.255350092950552</v>
+        <v>33.056675883543889</v>
       </c>
       <c r="E1" s="0">
-        <v>10.613875275880162</v>
+        <v>30.950811382003217</v>
       </c>
       <c r="F1" s="0">
-        <v>10.196066641082092</v>
+        <v>29.29792475401247</v>
       </c>
       <c r="G1" s="0">
-        <v>9.7610687705775572</v>
+        <v>27.827642625708986</v>
       </c>
       <c r="H1" s="0">
-        <v>9.6825288039014499</v>
+        <v>26.845772330081523</v>
       </c>
       <c r="I1" s="0">
-        <v>10.661243770849008</v>
+        <v>27.275951931055037</v>
       </c>
       <c r="J1" s="0">
-        <v>12.336914178358366</v>
+        <v>28.929461628917423</v>
       </c>
       <c r="K1" s="0">
-        <v>13.123795182466131</v>
+        <v>30.020418286232754</v>
       </c>
       <c r="L1" s="0">
-        <v>12.868134335177349</v>
+        <v>29.841784999731907</v>
       </c>
       <c r="M1" s="0">
-        <v>12.64763362240766</v>
+        <v>29.526652539254606</v>
       </c>
       <c r="N1" s="0">
-        <v>12.501314164330729</v>
+        <v>29.250684540930479</v>
       </c>
       <c r="O1" s="0">
-        <v>12.393255200564338</v>
+        <v>29.035869535370153</v>
       </c>
       <c r="P1" s="0">
-        <v>12.309368211754958</v>
+        <v>28.868510530552538</v>
       </c>
       <c r="Q1" s="0">
-        <v>12.242292365146913</v>
+        <v>28.737869819716138</v>
       </c>
       <c r="R1" s="0">
-        <v>12.18753434845056</v>
+        <v>28.636021123665117</v>
       </c>
       <c r="S1" s="0">
-        <v>12.142026851881194</v>
+        <v>28.556965801424436</v>
       </c>
       <c r="T1" s="0">
-        <v>12.10357787132817</v>
+        <v>28.496058135265887</v>
       </c>
       <c r="U1" s="0">
-        <v>12.070587255339461</v>
+        <v>28.44963976294834</v>
       </c>
       <c r="V1" s="0">
-        <v>12.041868518053953</v>
+        <v>28.414802172080005</v>
       </c>
       <c r="W1" s="0">
-        <v>12.016527707289921</v>
+        <v>28.389216757613202</v>
       </c>
       <c r="X1" s="0">
-        <v>11.993887498441213</v>
+        <v>28.371015725116738</v>
       </c>
       <c r="Y1" s="0">
-        <v>11.973427520412267</v>
+        <v>28.358699402235644</v>
       </c>
       <c r="Z1" s="0">
-        <v>11.954745097938263</v>
+        <v>28.351062180831747</v>
       </c>
       <c r="AA1" s="0">
-        <v>11.937526948663436</v>
+        <v>28.347135104269171</v>
       </c>
       <c r="AB1" s="0">
-        <v>11.921527019630414</v>
+        <v>28.346140160619619</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>19.105848604280428</v>
+        <v>45.44731957967339</v>
       </c>
       <c r="B2" s="0">
-        <v>18.111746283970501</v>
+        <v>42.773668955791678</v>
       </c>
       <c r="C2" s="0">
-        <v>17.120768242004743</v>
+        <v>40.116382081839745</v>
       </c>
       <c r="D2" s="0">
-        <v>16.160615077265401</v>
+        <v>37.568050534289419</v>
       </c>
       <c r="E2" s="0">
-        <v>15.319337969546709</v>
+        <v>35.313361723441368</v>
       </c>
       <c r="F2" s="0">
-        <v>14.673245464922708</v>
+        <v>33.487505358188315</v>
       </c>
       <c r="G2" s="0">
-        <v>14.038140827589798</v>
+        <v>31.85576091609542</v>
       </c>
       <c r="H2" s="0">
-        <v>13.784960888665987</v>
+        <v>30.696786784463711</v>
       </c>
       <c r="I2" s="0">
-        <v>14.8329475814368</v>
+        <v>30.782546743213352</v>
       </c>
       <c r="J2" s="0">
-        <v>16.895712308139718</v>
+        <v>31.94111194611332</v>
       </c>
       <c r="K2" s="0">
-        <v>18.043406864715269</v>
+        <v>32.858430210645366</v>
       </c>
       <c r="L2" s="0">
-        <v>17.905881253267466</v>
+        <v>32.605118494505973</v>
       </c>
       <c r="M2" s="0">
-        <v>17.686973386667795</v>
+        <v>32.267857663758022</v>
       </c>
       <c r="N2" s="0">
-        <v>17.529134578028835</v>
+        <v>31.993814470869374</v>
       </c>
       <c r="O2" s="0">
-        <v>17.41262480400313</v>
+        <v>31.774784222125145</v>
       </c>
       <c r="P2" s="0">
-        <v>17.323425373627519</v>
+        <v>31.598756705097102</v>
       </c>
       <c r="Q2" s="0">
-        <v>17.253619159871981</v>
+        <v>31.456953482099728</v>
       </c>
       <c r="R2" s="0">
-        <v>17.19828039057008</v>
+        <v>31.342876512661381</v>
       </c>
       <c r="S2" s="0">
-        <v>17.154011346537828</v>
+        <v>31.251483625300366</v>
       </c>
       <c r="T2" s="0">
-        <v>17.118331681744166</v>
+        <v>31.178741014145324</v>
       </c>
       <c r="U2" s="0">
-        <v>17.089370398990042</v>
+        <v>31.121360926452855</v>
       </c>
       <c r="V2" s="0">
-        <v>17.065693377433398</v>
+        <v>31.07663637090533</v>
       </c>
       <c r="W2" s="0">
-        <v>17.046187023933271</v>
+        <v>31.042324411355754</v>
       </c>
       <c r="X2" s="0">
-        <v>17.029984847831717</v>
+        <v>31.016564914680267</v>
       </c>
       <c r="Y2" s="0">
-        <v>17.013278378344129</v>
+        <v>30.99781372929623</v>
       </c>
       <c r="Z2" s="0">
-        <v>16.989951235911782</v>
+        <v>30.984789225744425</v>
       </c>
       <c r="AA2" s="0">
-        <v>16.968956752822752</v>
+        <v>30.976429125606817</v>
       </c>
       <c r="AB2" s="0">
-        <v>16.949913429077057</v>
+        <v>30.971853894333911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>30.989210064647402</v>
+        <v>61.368804449245062</v>
       </c>
       <c r="B3" s="0">
-        <v>29.614008914613731</v>
+        <v>58.533481270731343</v>
       </c>
       <c r="C3" s="0">
-        <v>28.19435169863646</v>
+        <v>55.568164158930983</v>
       </c>
       <c r="D3" s="0">
-        <v>26.774459174649863</v>
+        <v>52.566462266752147</v>
       </c>
       <c r="E3" s="0">
-        <v>25.527458605839421</v>
+        <v>49.817380513861551</v>
       </c>
       <c r="F3" s="0">
-        <v>24.543287374692525</v>
+        <v>47.493917636485506</v>
       </c>
       <c r="G3" s="0">
-        <v>23.603569247331738</v>
+        <v>45.367701851548993</v>
       </c>
       <c r="H3" s="0">
-        <v>23.026940165234926</v>
+        <v>43.720903356181338</v>
       </c>
       <c r="I3" s="0">
-        <v>23.712131056616833</v>
+        <v>43.494230951356102</v>
       </c>
       <c r="J3" s="0">
-        <v>25.519692422468797</v>
+        <v>44.615015000142549</v>
       </c>
       <c r="K3" s="0">
-        <v>26.78594658630152</v>
+        <v>45.413885946795773</v>
       </c>
       <c r="L3" s="0">
-        <v>26.832586188735782</v>
+        <v>45.0599218866288</v>
       </c>
       <c r="M3" s="0">
-        <v>26.732452663818954</v>
+        <v>44.608745459468267</v>
       </c>
       <c r="N3" s="0">
-        <v>26.64158730895884</v>
+        <v>44.22293719098132</v>
       </c>
       <c r="O3" s="0">
-        <v>26.562453231408735</v>
+        <v>43.902216582700945</v>
       </c>
       <c r="P3" s="0">
-        <v>26.49129072485233</v>
+        <v>43.63620523672779</v>
       </c>
       <c r="Q3" s="0">
-        <v>26.426340897155534</v>
+        <v>43.416006157695129</v>
       </c>
       <c r="R3" s="0">
-        <v>26.366936176440628</v>
+        <v>43.234491257451054</v>
       </c>
       <c r="S3" s="0">
-        <v>26.312739711377368</v>
+        <v>43.085812090962683</v>
       </c>
       <c r="T3" s="0">
-        <v>26.263471812749831</v>
+        <v>42.965068807502327</v>
       </c>
       <c r="U3" s="0">
-        <v>26.218822465042084</v>
+        <v>42.868099851775234</v>
       </c>
       <c r="V3" s="0">
-        <v>26.178444894323395</v>
+        <v>42.791345638139958</v>
       </c>
       <c r="W3" s="0">
-        <v>26.141967114349264</v>
+        <v>42.758986393832352</v>
       </c>
       <c r="X3" s="0">
-        <v>26.109011481059415</v>
+        <v>42.739290653228792</v>
       </c>
       <c r="Y3" s="0">
-        <v>26.079209043301237</v>
+        <v>42.728953157315743</v>
       </c>
       <c r="Z3" s="0">
-        <v>26.052208848068357</v>
+        <v>42.726446105050428</v>
       </c>
       <c r="AA3" s="0">
-        <v>26.027685423630239</v>
+        <v>42.73046060672884</v>
       </c>
       <c r="AB3" s="0">
-        <v>26.005342388441917</v>
+        <v>42.739877348566815</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>13.935947047048575</v>
+        <v>40.451812397473546</v>
       </c>
       <c r="B4" s="0">
-        <v>12.994749683708891</v>
+        <v>37.979789365298736</v>
       </c>
       <c r="C4" s="0">
-        <v>12.094903927047087</v>
+        <v>35.488690584982045</v>
       </c>
       <c r="D4" s="0">
-        <v>11.255350092950552</v>
+        <v>33.056675883543889</v>
       </c>
       <c r="E4" s="0">
-        <v>10.613875275880162</v>
+        <v>30.950811382003217</v>
       </c>
       <c r="F4" s="0">
-        <v>10.196066641082092</v>
+        <v>29.29792475401247</v>
       </c>
       <c r="G4" s="0">
-        <v>9.7610687705775572</v>
+        <v>27.827642625708986</v>
       </c>
       <c r="H4" s="0">
-        <v>9.6825288039014499</v>
+        <v>26.845772330081523</v>
       </c>
       <c r="I4" s="0">
-        <v>10.661243770849008</v>
+        <v>27.275951931055037</v>
       </c>
       <c r="J4" s="0">
-        <v>12.336914178358366</v>
+        <v>28.929461628917423</v>
       </c>
       <c r="K4" s="0">
-        <v>13.123795182466131</v>
+        <v>30.020418286232754</v>
       </c>
       <c r="L4" s="0">
-        <v>12.868134335177349</v>
+        <v>29.841784999731907</v>
       </c>
       <c r="M4" s="0">
-        <v>12.64763362240766</v>
+        <v>29.526652539254606</v>
       </c>
       <c r="N4" s="0">
-        <v>12.501314396737683</v>
+        <v>29.250684078055283</v>
       </c>
       <c r="O4" s="0">
-        <v>12.384829766638985</v>
+        <v>29.028679945154469</v>
       </c>
       <c r="P4" s="0">
-        <v>12.260827823054571</v>
+        <v>28.823615818176062</v>
       </c>
       <c r="Q4" s="0">
-        <v>12.116159543574646</v>
+        <v>28.61434353167332</v>
       </c>
       <c r="R4" s="0">
-        <v>11.949788051794034</v>
+        <v>28.391353211179869</v>
       </c>
       <c r="S4" s="0">
-        <v>11.76634030874702</v>
+        <v>28.151843210163278</v>
       </c>
       <c r="T4" s="0">
-        <v>11.572793700121888</v>
+        <v>27.897125640302694</v>
       </c>
       <c r="U4" s="0">
-        <v>11.375751848277975</v>
+        <v>27.630714636761088</v>
       </c>
       <c r="V4" s="0">
-        <v>11.181806525229536</v>
+        <v>27.356924307519616</v>
       </c>
       <c r="W4" s="0">
-        <v>11.000380771407571</v>
+        <v>27.069797982985968</v>
       </c>
       <c r="X4" s="0">
-        <v>10.844532926797244</v>
+        <v>26.772825138670804</v>
       </c>
       <c r="Y4" s="0">
-        <v>10.714354442674265</v>
+        <v>26.500843393076973</v>
       </c>
       <c r="Z4" s="0">
-        <v>10.606271269830456</v>
+        <v>26.254123149418735</v>
       </c>
       <c r="AA4" s="0">
-        <v>10.516094559840377</v>
+        <v>26.030892985329054</v>
       </c>
       <c r="AB4" s="0">
-        <v>10.439933893143117</v>
+        <v>25.828591558270983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>19.105848604280428</v>
+        <v>45.44731957967339</v>
       </c>
       <c r="B5" s="0">
-        <v>18.111746283970501</v>
+        <v>42.773668955791678</v>
       </c>
       <c r="C5" s="0">
-        <v>17.120768242004743</v>
+        <v>40.116382081839745</v>
       </c>
       <c r="D5" s="0">
-        <v>16.160615077265401</v>
+        <v>37.568050534289419</v>
       </c>
       <c r="E5" s="0">
-        <v>15.319337969546709</v>
+        <v>35.313361723441368</v>
       </c>
       <c r="F5" s="0">
-        <v>14.673245464922708</v>
+        <v>33.487505358188315</v>
       </c>
       <c r="G5" s="0">
-        <v>14.038140827589798</v>
+        <v>31.85576091609542</v>
       </c>
       <c r="H5" s="0">
-        <v>13.784960888665987</v>
+        <v>30.696786784463711</v>
       </c>
       <c r="I5" s="0">
-        <v>14.8329475814368</v>
+        <v>30.782546743213352</v>
       </c>
       <c r="J5" s="0">
-        <v>16.895712308139718</v>
+        <v>31.94111194611332</v>
       </c>
       <c r="K5" s="0">
-        <v>18.043406864715269</v>
+        <v>32.858430210645366</v>
       </c>
       <c r="L5" s="0">
-        <v>17.905881253267466</v>
+        <v>32.605118494505973</v>
       </c>
       <c r="M5" s="0">
-        <v>17.686973386667795</v>
+        <v>32.267857663758022</v>
       </c>
       <c r="N5" s="0">
-        <v>17.529134370566361</v>
+        <v>31.993813669576415</v>
       </c>
       <c r="O5" s="0">
-        <v>17.404645356376406</v>
+        <v>31.766741645954461</v>
       </c>
       <c r="P5" s="0">
-        <v>17.275090623134442</v>
+        <v>31.54821391453455</v>
       </c>
       <c r="Q5" s="0">
-        <v>17.124078921085424</v>
+        <v>31.316348764251981</v>
       </c>
       <c r="R5" s="0">
-        <v>16.948182997361616</v>
+        <v>31.061582327166803</v>
       </c>
       <c r="S5" s="0">
-        <v>16.712046407059585</v>
+        <v>30.782000128665743</v>
       </c>
       <c r="T5" s="0">
-        <v>16.434556750896213</v>
+        <v>30.480477102010145</v>
       </c>
       <c r="U5" s="0">
-        <v>16.147422064693789</v>
+        <v>30.162396255578894</v>
       </c>
       <c r="V5" s="0">
-        <v>15.86013819781064</v>
+        <v>29.833946263869223</v>
       </c>
       <c r="W5" s="0">
-        <v>15.586275839699258</v>
+        <v>29.505796935978832</v>
       </c>
       <c r="X5" s="0">
-        <v>15.345280260716043</v>
+        <v>29.195443022720621</v>
       </c>
       <c r="Y5" s="0">
-        <v>15.139766917095663</v>
+        <v>28.908799617659795</v>
       </c>
       <c r="Z5" s="0">
-        <v>14.966362506149165</v>
+        <v>28.646607134336716</v>
       </c>
       <c r="AA5" s="0">
-        <v>14.820142091088504</v>
+        <v>28.407566279502802</v>
       </c>
       <c r="AB5" s="0">
-        <v>14.696096681979141</v>
+        <v>28.194186295002943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>30.989210064647402</v>
+        <v>61.368804449245062</v>
       </c>
       <c r="B6" s="0">
-        <v>29.614008914613731</v>
+        <v>58.533481270731343</v>
       </c>
       <c r="C6" s="0">
-        <v>28.19435169863646</v>
+        <v>55.568164158930983</v>
       </c>
       <c r="D6" s="0">
-        <v>26.774459174649863</v>
+        <v>52.566462266752147</v>
       </c>
       <c r="E6" s="0">
-        <v>25.527458605839421</v>
+        <v>49.817380513861551</v>
       </c>
       <c r="F6" s="0">
-        <v>24.543287374692525</v>
+        <v>47.493917636485506</v>
       </c>
       <c r="G6" s="0">
-        <v>23.603569247331738</v>
+        <v>45.367701851548993</v>
       </c>
       <c r="H6" s="0">
-        <v>23.026940165234926</v>
+        <v>43.720903356181338</v>
       </c>
       <c r="I6" s="0">
-        <v>23.712131056616833</v>
+        <v>43.494230951356102</v>
       </c>
       <c r="J6" s="0">
-        <v>25.519692422468797</v>
+        <v>44.615015000142549</v>
       </c>
       <c r="K6" s="0">
-        <v>26.78594658630152</v>
+        <v>45.413885946795773</v>
       </c>
       <c r="L6" s="0">
-        <v>26.832586188735782</v>
+        <v>45.0599218866288</v>
       </c>
       <c r="M6" s="0">
-        <v>26.732452663818954</v>
+        <v>44.608745459468267</v>
       </c>
       <c r="N6" s="0">
-        <v>26.641586789913468</v>
+        <v>44.222935870635744</v>
       </c>
       <c r="O6" s="0">
-        <v>26.553051550006877</v>
+        <v>43.893786781573453</v>
       </c>
       <c r="P6" s="0">
-        <v>26.432632692483953</v>
+        <v>43.58201823442797</v>
       </c>
       <c r="Q6" s="0">
-        <v>26.265272534719465</v>
+        <v>43.262719282386101</v>
       </c>
       <c r="R6" s="0">
-        <v>26.049313409188233</v>
+        <v>42.923389536713373</v>
       </c>
       <c r="S6" s="0">
-        <v>25.790239580997092</v>
+        <v>42.559636865371445</v>
       </c>
       <c r="T6" s="0">
-        <v>25.497327071697757</v>
+        <v>42.172492351649368</v>
       </c>
       <c r="U6" s="0">
-        <v>25.181188485317343</v>
+        <v>41.766161291206899</v>
       </c>
       <c r="V6" s="0">
-        <v>24.852053294925906</v>
+        <v>41.346250868243203</v>
       </c>
       <c r="W6" s="0">
-        <v>24.524246247961326</v>
+        <v>40.923542531907373</v>
       </c>
       <c r="X6" s="0">
-        <v>24.21907752159332</v>
+        <v>40.530091144282345</v>
       </c>
       <c r="Y6" s="0">
-        <v>23.943216239110988</v>
+        <v>40.163512165966907</v>
       </c>
       <c r="Z6" s="0">
-        <v>23.696801646939321</v>
+        <v>39.820591116921804</v>
       </c>
       <c r="AA6" s="0">
-        <v>23.477627889492201</v>
+        <v>39.501312678832001</v>
       </c>
       <c r="AB6" s="0">
-        <v>23.282602591413138</v>
+        <v>39.204435193957167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>13.935947047048575</v>
+        <v>40.451812397473546</v>
       </c>
       <c r="B7" s="0">
-        <v>12.994749683708891</v>
+        <v>37.979789365298736</v>
       </c>
       <c r="C7" s="0">
-        <v>12.094903927047087</v>
+        <v>35.488690584982045</v>
       </c>
       <c r="D7" s="0">
-        <v>11.255350092950552</v>
+        <v>33.056675883543889</v>
       </c>
       <c r="E7" s="0">
-        <v>10.613875275880162</v>
+        <v>30.950811382003217</v>
       </c>
       <c r="F7" s="0">
-        <v>10.196066641082092</v>
+        <v>29.29792475401247</v>
       </c>
       <c r="G7" s="0">
-        <v>9.7610687705775572</v>
+        <v>27.827642625708986</v>
       </c>
       <c r="H7" s="0">
-        <v>9.6825288039014499</v>
+        <v>26.845772330081523</v>
       </c>
       <c r="I7" s="0">
-        <v>10.661243770849008</v>
+        <v>27.275951931055037</v>
       </c>
       <c r="J7" s="0">
-        <v>12.336914178358366</v>
+        <v>28.929461628917423</v>
       </c>
       <c r="K7" s="0">
-        <v>13.123795182466131</v>
+        <v>30.020418286232754</v>
       </c>
       <c r="L7" s="0">
-        <v>12.868134335177349</v>
+        <v>29.841784999731907</v>
       </c>
       <c r="M7" s="0">
-        <v>12.64763362240766</v>
+        <v>29.526652539254606</v>
       </c>
       <c r="N7" s="0">
-        <v>12.501314396680167</v>
+        <v>29.250684077990528</v>
       </c>
       <c r="O7" s="0">
-        <v>12.384635077895439</v>
+        <v>29.028510323553164</v>
       </c>
       <c r="P7" s="0">
-        <v>12.260004681862446</v>
+        <v>28.822837171922238</v>
       </c>
       <c r="Q7" s="0">
-        <v>12.114555313959281</v>
+        <v>28.612709707464291</v>
       </c>
       <c r="R7" s="0">
-        <v>11.947456535313858</v>
+        <v>28.388813835779129</v>
       </c>
       <c r="S7" s="0">
-        <v>11.763431443365057</v>
+        <v>28.14846942141206</v>
       </c>
       <c r="T7" s="0">
-        <v>11.5694919916139</v>
+        <v>27.893056456967621</v>
       </c>
       <c r="U7" s="0">
-        <v>11.372242493866743</v>
+        <v>27.626123545841477</v>
       </c>
       <c r="V7" s="0">
-        <v>11.178267202334943</v>
+        <v>27.351999219654562</v>
       </c>
       <c r="W7" s="0">
-        <v>10.99715828160326</v>
+        <v>27.064747433446559</v>
       </c>
       <c r="X7" s="0">
-        <v>10.842194090686062</v>
+        <v>26.76844456973064</v>
       </c>
       <c r="Y7" s="0">
-        <v>10.713162698736424</v>
+        <v>26.497574603701423</v>
       </c>
       <c r="Z7" s="0">
-        <v>10.606263562225383</v>
+        <v>26.252183213822729</v>
       </c>
       <c r="AA7" s="0">
-        <v>10.517204312621324</v>
+        <v>26.030356562143371</v>
       </c>
       <c r="AB7" s="0">
-        <v>10.44205974930523</v>
+        <v>25.829453111225732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>19.105848604280428</v>
+        <v>45.44731957967339</v>
       </c>
       <c r="B8" s="0">
-        <v>18.111746283970501</v>
+        <v>42.773668955791678</v>
       </c>
       <c r="C8" s="0">
-        <v>17.120768242004743</v>
+        <v>40.116382081839745</v>
       </c>
       <c r="D8" s="0">
-        <v>16.160615077265401</v>
+        <v>37.568050534289419</v>
       </c>
       <c r="E8" s="0">
-        <v>15.319337969546709</v>
+        <v>35.313361723441368</v>
       </c>
       <c r="F8" s="0">
-        <v>14.673245464922708</v>
+        <v>33.487505358188315</v>
       </c>
       <c r="G8" s="0">
-        <v>14.038140827589798</v>
+        <v>31.85576091609542</v>
       </c>
       <c r="H8" s="0">
-        <v>13.784960888665987</v>
+        <v>30.696786784463711</v>
       </c>
       <c r="I8" s="0">
-        <v>14.8329475814368</v>
+        <v>30.782546743213352</v>
       </c>
       <c r="J8" s="0">
-        <v>16.895712308139718</v>
+        <v>31.94111194611332</v>
       </c>
       <c r="K8" s="0">
-        <v>18.043406864715269</v>
+        <v>32.858430210645366</v>
       </c>
       <c r="L8" s="0">
-        <v>17.905881253267466</v>
+        <v>32.605118494505973</v>
       </c>
       <c r="M8" s="0">
-        <v>17.686973386667795</v>
+        <v>32.267857663758022</v>
       </c>
       <c r="N8" s="0">
-        <v>17.529134370551677</v>
+        <v>31.993813669540913</v>
       </c>
       <c r="O8" s="0">
-        <v>17.404468660981287</v>
+        <v>31.766601146568835</v>
       </c>
       <c r="P8" s="0">
-        <v>17.274309757372809</v>
+        <v>31.547561285142748</v>
       </c>
       <c r="Q8" s="0">
-        <v>17.122499631177167</v>
+        <v>31.314963511124226</v>
       </c>
       <c r="R8" s="0">
-        <v>16.945812897714383</v>
+        <v>31.059405673782496</v>
       </c>
       <c r="S8" s="0">
-        <v>16.708833452286822</v>
+        <v>30.779078125508999</v>
       </c>
       <c r="T8" s="0">
-        <v>16.430823085013408</v>
+        <v>30.476917543023855</v>
       </c>
       <c r="U8" s="0">
-        <v>16.143365824776186</v>
+        <v>30.158340816795121</v>
       </c>
       <c r="V8" s="0">
-        <v>15.855953886761577</v>
+        <v>29.829553085288328</v>
       </c>
       <c r="W8" s="0">
-        <v>15.582330035989663</v>
+        <v>29.501373286335824</v>
       </c>
       <c r="X8" s="0">
-        <v>15.342185230888283</v>
+        <v>29.191539447830948</v>
       </c>
       <c r="Y8" s="0">
-        <v>15.137857557072653</v>
+        <v>28.905805864336184</v>
       </c>
       <c r="Z8" s="0">
-        <v>14.965734701168104</v>
+        <v>28.644731955019459</v>
       </c>
       <c r="AA8" s="0">
-        <v>14.820765460158954</v>
+        <v>28.406899016140688</v>
       </c>
       <c r="AB8" s="0">
-        <v>14.697886320007527</v>
+        <v>28.194945251441116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>30.989210064647402</v>
+        <v>61.368804449245062</v>
       </c>
       <c r="B9" s="0">
-        <v>29.614008914613731</v>
+        <v>58.533481270731343</v>
       </c>
       <c r="C9" s="0">
-        <v>28.19435169863646</v>
+        <v>55.568164158930983</v>
       </c>
       <c r="D9" s="0">
-        <v>26.774459174649863</v>
+        <v>52.566462266752147</v>
       </c>
       <c r="E9" s="0">
-        <v>25.527458605839421</v>
+        <v>49.817380513861551</v>
       </c>
       <c r="F9" s="0">
-        <v>24.543287374692525</v>
+        <v>47.493917636485506</v>
       </c>
       <c r="G9" s="0">
-        <v>23.603569247331738</v>
+        <v>45.367701851548993</v>
       </c>
       <c r="H9" s="0">
-        <v>23.026940165234926</v>
+        <v>43.720903356181338</v>
       </c>
       <c r="I9" s="0">
-        <v>23.712131056616833</v>
+        <v>43.494230951356102</v>
       </c>
       <c r="J9" s="0">
-        <v>25.519692422468797</v>
+        <v>44.615015000142549</v>
       </c>
       <c r="K9" s="0">
-        <v>26.78594658630152</v>
+        <v>45.413885946795773</v>
       </c>
       <c r="L9" s="0">
-        <v>26.832586188735782</v>
+        <v>45.0599218866288</v>
       </c>
       <c r="M9" s="0">
-        <v>26.732452663818954</v>
+        <v>44.608745459468267</v>
       </c>
       <c r="N9" s="0">
-        <v>26.641586789839096</v>
+        <v>44.22293587035599</v>
       </c>
       <c r="O9" s="0">
-        <v>26.55289559072769</v>
+        <v>43.893689766172912</v>
       </c>
       <c r="P9" s="0">
-        <v>26.431914946568149</v>
+        <v>43.581560142013828</v>
       </c>
       <c r="Q9" s="0">
-        <v>26.263762607490886</v>
+        <v>43.261729764145358</v>
       </c>
       <c r="R9" s="0">
-        <v>26.046961684444341</v>
+        <v>42.921807302093072</v>
       </c>
       <c r="S9" s="0">
-        <v>25.787111065101648</v>
+        <v>42.557475438675148</v>
       </c>
       <c r="T9" s="0">
-        <v>25.493552874641274</v>
+        <v>42.169812521815906</v>
       </c>
       <c r="U9" s="0">
-        <v>25.176934698917261</v>
+        <v>41.763052613664136</v>
       </c>
       <c r="V9" s="0">
-        <v>24.847501416400434</v>
+        <v>41.342819659379515</v>
       </c>
       <c r="W9" s="0">
-        <v>24.519740039861247</v>
+        <v>40.920003415916945</v>
       </c>
       <c r="X9" s="0">
-        <v>24.215217164147941</v>
+        <v>40.526426469124353</v>
       </c>
       <c r="Y9" s="0">
-        <v>23.940407697039266</v>
+        <v>40.160522642827786</v>
       </c>
       <c r="Z9" s="0">
-        <v>23.695246057824466</v>
+        <v>39.818481496805767</v>
       </c>
       <c r="AA9" s="0">
-        <v>23.477396783277236</v>
+        <v>39.500192551291221</v>
       </c>
       <c r="AB9" s="0">
-        <v>23.28369434259308</v>
+        <v>39.20435404945453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>13.935947047048575</v>
+        <v>40.451812397473546</v>
       </c>
       <c r="B10" s="0">
-        <v>12.994749683708891</v>
+        <v>37.979789365298736</v>
       </c>
       <c r="C10" s="0">
-        <v>12.094903927047087</v>
+        <v>35.488690584982045</v>
       </c>
       <c r="D10" s="0">
-        <v>11.255350092950552</v>
+        <v>33.056675883543889</v>
       </c>
       <c r="E10" s="0">
-        <v>10.613875275880162</v>
+        <v>30.950811382003217</v>
       </c>
       <c r="F10" s="0">
-        <v>10.196066641082092</v>
+        <v>29.29792475401247</v>
       </c>
       <c r="G10" s="0">
-        <v>9.7610687705775572</v>
+        <v>27.827642625708986</v>
       </c>
       <c r="H10" s="0">
-        <v>9.6825288039014499</v>
+        <v>26.845772330081523</v>
       </c>
       <c r="I10" s="0">
-        <v>10.661243770849008</v>
+        <v>27.275951931055037</v>
       </c>
       <c r="J10" s="0">
-        <v>12.336914178358366</v>
+        <v>28.929461628917423</v>
       </c>
       <c r="K10" s="0">
-        <v>13.123795182466131</v>
+        <v>30.020418286232754</v>
       </c>
       <c r="L10" s="0">
-        <v>12.868134335177349</v>
+        <v>29.841784999731907</v>
       </c>
       <c r="M10" s="0">
-        <v>12.64763362240766</v>
+        <v>29.526652539254606</v>
       </c>
       <c r="N10" s="0">
-        <v>12.501313123021285</v>
+        <v>29.250680546626288</v>
       </c>
       <c r="O10" s="0">
-        <v>12.243920190199329</v>
+        <v>28.664612238382173</v>
       </c>
       <c r="P10" s="0">
-        <v>11.804134210296287</v>
+        <v>27.548762583845452</v>
       </c>
       <c r="Q10" s="0">
-        <v>11.266516383913645</v>
+        <v>26.104207861615482</v>
       </c>
       <c r="R10" s="0">
-        <v>10.684438472649138</v>
+        <v>24.490364537952559</v>
       </c>
       <c r="S10" s="0">
-        <v>10.094319225362069</v>
+        <v>22.828174440605579</v>
       </c>
       <c r="T10" s="0">
-        <v>9.5206976771154519</v>
+        <v>21.203153717534313</v>
       </c>
       <c r="U10" s="0">
-        <v>8.9788936158127584</v>
+        <v>19.67003776283898</v>
       </c>
       <c r="V10" s="0">
-        <v>8.4771101238528139</v>
+        <v>18.258820233830317</v>
       </c>
       <c r="W10" s="0">
-        <v>8.1045974729915873</v>
+        <v>17.16957135611073</v>
       </c>
       <c r="X10" s="0">
-        <v>7.8688251545802777</v>
+        <v>16.438536293927832</v>
       </c>
       <c r="Y10" s="0">
-        <v>7.7071674588759915</v>
+        <v>15.921224784318532</v>
       </c>
       <c r="Z10" s="0">
-        <v>7.5907804252499478</v>
+        <v>15.523180659861024</v>
       </c>
       <c r="AA10" s="0">
-        <v>7.5036329430842379</v>
+        <v>15.199149133663152</v>
       </c>
       <c r="AB10" s="0">
-        <v>7.4358396747101958</v>
+        <v>14.94444395518561</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>19.105848604280428</v>
+        <v>45.44731957967339</v>
       </c>
       <c r="B11" s="0">
-        <v>18.111746283970501</v>
+        <v>42.773668955791678</v>
       </c>
       <c r="C11" s="0">
-        <v>17.120768242004743</v>
+        <v>40.116382081839745</v>
       </c>
       <c r="D11" s="0">
-        <v>16.160615077265401</v>
+        <v>37.568050534289419</v>
       </c>
       <c r="E11" s="0">
-        <v>15.319337969546709</v>
+        <v>35.313361723441368</v>
       </c>
       <c r="F11" s="0">
-        <v>14.673245464922708</v>
+        <v>33.487505358188315</v>
       </c>
       <c r="G11" s="0">
-        <v>14.038140827589798</v>
+        <v>31.85576091609542</v>
       </c>
       <c r="H11" s="0">
-        <v>13.784960888665987</v>
+        <v>30.696786784463711</v>
       </c>
       <c r="I11" s="0">
-        <v>14.8329475814368</v>
+        <v>30.782546743213352</v>
       </c>
       <c r="J11" s="0">
-        <v>16.895712308139718</v>
+        <v>31.94111194611332</v>
       </c>
       <c r="K11" s="0">
-        <v>18.043406864715269</v>
+        <v>32.858430210645366</v>
       </c>
       <c r="L11" s="0">
-        <v>17.905881253267466</v>
+        <v>32.605118494505973</v>
       </c>
       <c r="M11" s="0">
-        <v>17.686973386667795</v>
+        <v>32.267857663758022</v>
       </c>
       <c r="N11" s="0">
-        <v>17.529133819258071</v>
+        <v>31.993810971727506</v>
       </c>
       <c r="O11" s="0">
-        <v>17.195585199668855</v>
+        <v>31.363772156493216</v>
       </c>
       <c r="P11" s="0">
-        <v>16.570775386654578</v>
+        <v>30.120324085390859</v>
       </c>
       <c r="Q11" s="0">
-        <v>15.778606053205444</v>
+        <v>28.479072147286779</v>
       </c>
       <c r="R11" s="0">
-        <v>14.906286651676281</v>
+        <v>26.621944460745009</v>
       </c>
       <c r="S11" s="0">
-        <v>14.015129376691206</v>
+        <v>24.693791818531505</v>
       </c>
       <c r="T11" s="0">
-        <v>13.106354282861233</v>
+        <v>22.80110958538922</v>
       </c>
       <c r="U11" s="0">
-        <v>12.247296848436637</v>
+        <v>21.014418660799549</v>
       </c>
       <c r="V11" s="0">
-        <v>11.455106880067898</v>
+        <v>19.406334933260457</v>
       </c>
       <c r="W11" s="0">
-        <v>10.854320699550577</v>
+        <v>18.209417269019976</v>
       </c>
       <c r="X11" s="0">
-        <v>10.462787615573561</v>
+        <v>17.397639516253083</v>
       </c>
       <c r="Y11" s="0">
-        <v>10.191477201864442</v>
+        <v>16.818947237352447</v>
       </c>
       <c r="Z11" s="0">
-        <v>9.9955433705579129</v>
+        <v>16.389763595809363</v>
       </c>
       <c r="AA11" s="0">
-        <v>9.849342253896582</v>
+        <v>16.060946414592436</v>
       </c>
       <c r="AB11" s="0">
-        <v>9.7368366420134098</v>
+        <v>15.801780980535236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>30.989210064647402</v>
+        <v>61.368804449245062</v>
       </c>
       <c r="B12" s="0">
-        <v>29.614008914613731</v>
+        <v>58.533481270731343</v>
       </c>
       <c r="C12" s="0">
-        <v>28.19435169863646</v>
+        <v>55.568164158930983</v>
       </c>
       <c r="D12" s="0">
-        <v>26.774459174649863</v>
+        <v>52.566462266752147</v>
       </c>
       <c r="E12" s="0">
-        <v>25.527458605839421</v>
+        <v>49.817380513861551</v>
       </c>
       <c r="F12" s="0">
-        <v>24.543287374692525</v>
+        <v>47.493917636485506</v>
       </c>
       <c r="G12" s="0">
-        <v>23.603569247331738</v>
+        <v>45.367701851548993</v>
       </c>
       <c r="H12" s="0">
-        <v>23.026940165234926</v>
+        <v>43.720903356181338</v>
       </c>
       <c r="I12" s="0">
-        <v>23.712131056616833</v>
+        <v>43.494230951356102</v>
       </c>
       <c r="J12" s="0">
-        <v>25.519692422468797</v>
+        <v>44.615015000142549</v>
       </c>
       <c r="K12" s="0">
-        <v>26.78594658630152</v>
+        <v>45.413885946795773</v>
       </c>
       <c r="L12" s="0">
-        <v>26.832586188735782</v>
+        <v>45.0599218866288</v>
       </c>
       <c r="M12" s="0">
-        <v>26.732452663818954</v>
+        <v>44.608745459468267</v>
       </c>
       <c r="N12" s="0">
-        <v>26.641584285838146</v>
+        <v>44.222918327039785</v>
       </c>
       <c r="O12" s="0">
-        <v>26.218252774333369</v>
+        <v>43.323385823916638</v>
       </c>
       <c r="P12" s="0">
-        <v>25.258573145501302</v>
+        <v>41.524636924330487</v>
       </c>
       <c r="Q12" s="0">
-        <v>23.950989213175227</v>
+        <v>39.11548597298976</v>
       </c>
       <c r="R12" s="0">
-        <v>22.450728132072474</v>
+        <v>36.35842599758297</v>
       </c>
       <c r="S12" s="0">
-        <v>20.880206158930168</v>
+        <v>33.517067539530707</v>
       </c>
       <c r="T12" s="0">
-        <v>19.329502836777007</v>
+        <v>30.752760432735215</v>
       </c>
       <c r="U12" s="0">
-        <v>17.858827225402745</v>
+        <v>28.134734573341163</v>
       </c>
       <c r="V12" s="0">
-        <v>16.503107418951128</v>
+        <v>25.7318702025558</v>
       </c>
       <c r="W12" s="0">
-        <v>15.447543260595983</v>
+        <v>23.834671872697655</v>
       </c>
       <c r="X12" s="0">
-        <v>14.727459615535137</v>
+        <v>22.502679118972804</v>
       </c>
       <c r="Y12" s="0">
-        <v>14.212682827983574</v>
+        <v>21.530423514672876</v>
       </c>
       <c r="Z12" s="0">
-        <v>13.831736246688681</v>
+        <v>20.798365808339845</v>
       </c>
       <c r="AA12" s="0">
-        <v>13.542065056645219</v>
+        <v>20.232393375823904</v>
       </c>
       <c r="AB12" s="0">
-        <v>13.316492297255159</v>
+        <v>19.783742274335257</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>13.935947047048575</v>
+        <v>40.451812397473546</v>
       </c>
       <c r="B13" s="0">
-        <v>12.994749683708891</v>
+        <v>37.979789365298736</v>
       </c>
       <c r="C13" s="0">
-        <v>12.094903927047087</v>
+        <v>35.488690584982045</v>
       </c>
       <c r="D13" s="0">
-        <v>11.255350092950552</v>
+        <v>33.056675883543889</v>
       </c>
       <c r="E13" s="0">
-        <v>10.613875275880162</v>
+        <v>30.950811382003217</v>
       </c>
       <c r="F13" s="0">
-        <v>10.196066641082092</v>
+        <v>29.29792475401247</v>
       </c>
       <c r="G13" s="0">
-        <v>9.7610687705775572</v>
+        <v>27.827642625708986</v>
       </c>
       <c r="H13" s="0">
-        <v>9.6825288039014499</v>
+        <v>26.845772330081523</v>
       </c>
       <c r="I13" s="0">
-        <v>10.661243770849008</v>
+        <v>27.275951931055037</v>
       </c>
       <c r="J13" s="0">
-        <v>12.336914178358366</v>
+        <v>28.929461628917423</v>
       </c>
       <c r="K13" s="0">
-        <v>13.123795182466131</v>
+        <v>30.020418286232754</v>
       </c>
       <c r="L13" s="0">
-        <v>12.868134335177349</v>
+        <v>29.841784999731907</v>
       </c>
       <c r="M13" s="0">
-        <v>12.64763362240766</v>
+        <v>29.526652539254606</v>
       </c>
       <c r="N13" s="0">
-        <v>12.501312807762801</v>
+        <v>29.250679615412334</v>
       </c>
       <c r="O13" s="0">
-        <v>12.209410533237067</v>
+        <v>28.569496763810935</v>
       </c>
       <c r="P13" s="0">
-        <v>11.695505770561272</v>
+        <v>27.2208402379649</v>
       </c>
       <c r="Q13" s="0">
-        <v>11.07114768667099</v>
+        <v>25.47144587374984</v>
       </c>
       <c r="R13" s="0">
-        <v>10.403413822605119</v>
+        <v>23.530336111008918</v>
       </c>
       <c r="S13" s="0">
-        <v>9.7355539628234897</v>
+        <v>21.553777722314425</v>
       </c>
       <c r="T13" s="0">
-        <v>9.0950262358719432</v>
+        <v>19.649894306097607</v>
       </c>
       <c r="U13" s="0">
-        <v>8.4977658199602395</v>
+        <v>17.885259547153837</v>
       </c>
       <c r="V13" s="0">
-        <v>7.9512841132273921</v>
+        <v>16.293330900841404</v>
       </c>
       <c r="W13" s="0">
-        <v>7.5612142653343186</v>
+        <v>15.082856100012044</v>
       </c>
       <c r="X13" s="0">
-        <v>7.3306024973799415</v>
+        <v>14.265998950140915</v>
       </c>
       <c r="Y13" s="0">
-        <v>7.1807838473024876</v>
+        <v>13.724036670167084</v>
       </c>
       <c r="Z13" s="0">
-        <v>7.0770866378120099</v>
+        <v>13.351661435253069</v>
       </c>
       <c r="AA13" s="0">
-        <v>7.0015147145039576</v>
+        <v>13.087289458886008</v>
       </c>
       <c r="AB13" s="0">
-        <v>6.9437049940165796</v>
+        <v>12.893297351713583</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>19.105848604280428</v>
+        <v>45.44731957967339</v>
       </c>
       <c r="B14" s="0">
-        <v>18.111746283970501</v>
+        <v>42.773668955791678</v>
       </c>
       <c r="C14" s="0">
-        <v>17.120768242004743</v>
+        <v>40.116382081839745</v>
       </c>
       <c r="D14" s="0">
-        <v>16.160615077265401</v>
+        <v>37.568050534289419</v>
       </c>
       <c r="E14" s="0">
-        <v>15.319337969546709</v>
+        <v>35.313361723441368</v>
       </c>
       <c r="F14" s="0">
-        <v>14.673245464922708</v>
+        <v>33.487505358188315</v>
       </c>
       <c r="G14" s="0">
-        <v>14.038140827589798</v>
+        <v>31.85576091609542</v>
       </c>
       <c r="H14" s="0">
-        <v>13.784960888665987</v>
+        <v>30.696786784463711</v>
       </c>
       <c r="I14" s="0">
-        <v>14.8329475814368</v>
+        <v>30.782546743213352</v>
       </c>
       <c r="J14" s="0">
-        <v>16.895712308139718</v>
+        <v>31.94111194611332</v>
       </c>
       <c r="K14" s="0">
-        <v>18.043406864715269</v>
+        <v>32.858430210645366</v>
       </c>
       <c r="L14" s="0">
-        <v>17.905881253267466</v>
+        <v>32.605118494505973</v>
       </c>
       <c r="M14" s="0">
-        <v>17.686973386667795</v>
+        <v>32.267857663758022</v>
       </c>
       <c r="N14" s="0">
-        <v>17.529133679199315</v>
+        <v>31.993810250896818</v>
       </c>
       <c r="O14" s="0">
-        <v>17.142638493918842</v>
+        <v>31.257069070228759</v>
       </c>
       <c r="P14" s="0">
-        <v>16.394857282602157</v>
+        <v>29.748139600697971</v>
       </c>
       <c r="Q14" s="0">
-        <v>15.449127340303303</v>
+        <v>27.754048145720326</v>
       </c>
       <c r="R14" s="0">
-        <v>14.418055818725785</v>
+        <v>25.513611234310165</v>
       </c>
       <c r="S14" s="0">
-        <v>13.378600360992371</v>
+        <v>23.214113543555563</v>
       </c>
       <c r="T14" s="0">
-        <v>12.367006103816943</v>
+        <v>20.99051468460781</v>
       </c>
       <c r="U14" s="0">
-        <v>11.408165036054944</v>
+        <v>18.929219075878823</v>
       </c>
       <c r="V14" s="0">
-        <v>10.538156567913955</v>
+        <v>17.155435554033811</v>
       </c>
       <c r="W14" s="0">
-        <v>9.9040690128981925</v>
+        <v>15.849434598366805</v>
       </c>
       <c r="X14" s="0">
-        <v>9.5186134195182604</v>
+        <v>15.021553264297166</v>
       </c>
       <c r="Y14" s="0">
-        <v>9.2682919115497242</v>
+        <v>14.474090725715836</v>
       </c>
       <c r="Z14" s="0">
-        <v>9.0973701822873032</v>
+        <v>14.098262088289182</v>
       </c>
       <c r="AA14" s="0">
-        <v>8.9755173318400363</v>
+        <v>13.831008006112237</v>
       </c>
       <c r="AB14" s="0">
-        <v>8.8849237111409103</v>
+        <v>13.634119877212488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>30.989210064647402</v>
+        <v>61.368804449245062</v>
       </c>
       <c r="B15" s="0">
-        <v>29.614008914613731</v>
+        <v>58.533481270731343</v>
       </c>
       <c r="C15" s="0">
-        <v>28.19435169863646</v>
+        <v>55.568164158930983</v>
       </c>
       <c r="D15" s="0">
-        <v>26.774459174649863</v>
+        <v>52.566462266752147</v>
       </c>
       <c r="E15" s="0">
-        <v>25.527458605839421</v>
+        <v>49.817380513861551</v>
       </c>
       <c r="F15" s="0">
-        <v>24.543287374692525</v>
+        <v>47.493917636485506</v>
       </c>
       <c r="G15" s="0">
-        <v>23.603569247331738</v>
+        <v>45.367701851548993</v>
       </c>
       <c r="H15" s="0">
-        <v>23.026940165234926</v>
+        <v>43.720903356181338</v>
       </c>
       <c r="I15" s="0">
-        <v>23.712131056616833</v>
+        <v>43.494230951356102</v>
       </c>
       <c r="J15" s="0">
-        <v>25.519692422468797</v>
+        <v>44.615015000142549</v>
       </c>
       <c r="K15" s="0">
-        <v>26.78594658630152</v>
+        <v>45.413885946795773</v>
       </c>
       <c r="L15" s="0">
-        <v>26.832586188735782</v>
+        <v>45.0599218866288</v>
       </c>
       <c r="M15" s="0">
-        <v>26.732452663818954</v>
+        <v>44.608745459468267</v>
       </c>
       <c r="N15" s="0">
-        <v>26.641583655375559</v>
+        <v>44.222913667390401</v>
       </c>
       <c r="O15" s="0">
-        <v>26.133972194159462</v>
+        <v>43.173444553524561</v>
       </c>
       <c r="P15" s="0">
-        <v>24.966554253751585</v>
+        <v>40.99198988258599</v>
       </c>
       <c r="Q15" s="0">
-        <v>23.384800323478089</v>
+        <v>38.061414238538177</v>
       </c>
       <c r="R15" s="0">
-        <v>21.587823345010559</v>
+        <v>34.725249415679713</v>
       </c>
       <c r="S15" s="0">
-        <v>19.730085374532518</v>
+        <v>31.284577981081327</v>
       </c>
       <c r="T15" s="0">
-        <v>17.922884273380962</v>
+        <v>27.994389077903154</v>
       </c>
       <c r="U15" s="0">
-        <v>16.238155598776931</v>
+        <v>24.933227925749382</v>
       </c>
       <c r="V15" s="0">
-        <v>14.714886242581644</v>
+        <v>22.183057171633049</v>
       </c>
       <c r="W15" s="0">
-        <v>13.572336476576286</v>
+        <v>20.08865073607241</v>
       </c>
       <c r="X15" s="0">
-        <v>12.840802492680069</v>
+        <v>18.702525213486339</v>
       </c>
       <c r="Y15" s="0">
-        <v>12.352434473805902</v>
+        <v>17.758425026238349</v>
       </c>
       <c r="Z15" s="0">
-        <v>12.01529217924756</v>
+        <v>17.100303497630755</v>
       </c>
       <c r="AA15" s="0">
-        <v>11.775607610600703</v>
+        <v>16.629908482417463</v>
       </c>
       <c r="AB15" s="0">
-        <v>11.600190064651201</v>
+        <v>16.285874111960542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>13.935947047048575</v>
+        <v>40.451812397473546</v>
       </c>
       <c r="B16" s="0">
-        <v>12.994749683708891</v>
+        <v>37.979789365298736</v>
       </c>
       <c r="C16" s="0">
-        <v>12.094903927047087</v>
+        <v>35.488690584982045</v>
       </c>
       <c r="D16" s="0">
-        <v>11.255350092950552</v>
+        <v>33.056675883543889</v>
       </c>
       <c r="E16" s="0">
-        <v>10.613875275880162</v>
+        <v>30.950811382003217</v>
       </c>
       <c r="F16" s="0">
-        <v>10.196066641082092</v>
+        <v>29.29792475401247</v>
       </c>
       <c r="G16" s="0">
-        <v>9.7610687705775572</v>
+        <v>27.827642625708986</v>
       </c>
       <c r="H16" s="0">
-        <v>9.6825288039014499</v>
+        <v>26.845772330081523</v>
       </c>
       <c r="I16" s="0">
-        <v>10.661243770849008</v>
+        <v>27.275951931055037</v>
       </c>
       <c r="J16" s="0">
-        <v>12.336914178358366</v>
+        <v>28.929461628917423</v>
       </c>
       <c r="K16" s="0">
-        <v>13.123795182466131</v>
+        <v>30.020418286232754</v>
       </c>
       <c r="L16" s="0">
-        <v>12.868134335177349</v>
+        <v>29.841784999731907</v>
       </c>
       <c r="M16" s="0">
-        <v>12.64763362240766</v>
+        <v>29.526652539254606</v>
       </c>
       <c r="N16" s="0">
-        <v>12.501305835701615</v>
+        <v>29.250683013889013</v>
       </c>
       <c r="O16" s="0">
-        <v>12.196006778791096</v>
+        <v>28.557110225871554</v>
       </c>
       <c r="P16" s="0">
-        <v>11.633634923448559</v>
+        <v>27.154625433859625</v>
       </c>
       <c r="Q16" s="0">
-        <v>10.934717287026716</v>
+        <v>25.312935961337701</v>
       </c>
       <c r="R16" s="0">
-        <v>10.176610189630756</v>
+        <v>23.253219547946607</v>
       </c>
       <c r="S16" s="0">
-        <v>9.4114096658399937</v>
+        <v>21.14424812035395</v>
       </c>
       <c r="T16" s="0">
-        <v>8.6738116717054723</v>
+        <v>19.090357109273238</v>
       </c>
       <c r="U16" s="0">
-        <v>7.9850136865922483</v>
+        <v>17.138984796626261</v>
       </c>
       <c r="V16" s="0">
-        <v>7.3557863629099156</v>
+        <v>15.375456597268743</v>
       </c>
       <c r="W16" s="0">
-        <v>6.8945552858706538</v>
+        <v>14.036586350737494</v>
       </c>
       <c r="X16" s="0">
-        <v>6.6120804348897835</v>
+        <v>13.166763184237899</v>
       </c>
       <c r="Y16" s="0">
-        <v>6.4239976276425894</v>
+        <v>12.577313739858065</v>
       </c>
       <c r="Z16" s="0">
-        <v>6.2914133008803734</v>
+        <v>12.16138366737022</v>
       </c>
       <c r="AA16" s="0">
-        <v>6.1934875031440084</v>
+        <v>11.851414486187773</v>
       </c>
       <c r="AB16" s="0">
-        <v>6.1178839619452052</v>
+        <v>11.613309294694504</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>19.105848604280428</v>
+        <v>45.44731957967339</v>
       </c>
       <c r="B17" s="0">
-        <v>18.111746283970501</v>
+        <v>42.773668955791678</v>
       </c>
       <c r="C17" s="0">
-        <v>17.120768242004743</v>
+        <v>40.116382081839745</v>
       </c>
       <c r="D17" s="0">
-        <v>16.160615077265401</v>
+        <v>37.568050534289419</v>
       </c>
       <c r="E17" s="0">
-        <v>15.319337969546709</v>
+        <v>35.313361723441368</v>
       </c>
       <c r="F17" s="0">
-        <v>14.673245464922708</v>
+        <v>33.487505358188315</v>
       </c>
       <c r="G17" s="0">
-        <v>14.038140827589798</v>
+        <v>31.85576091609542</v>
       </c>
       <c r="H17" s="0">
-        <v>13.784960888665987</v>
+        <v>30.696786784463711</v>
       </c>
       <c r="I17" s="0">
-        <v>14.8329475814368</v>
+        <v>30.782546743213352</v>
       </c>
       <c r="J17" s="0">
-        <v>16.895712308139718</v>
+        <v>31.94111194611332</v>
       </c>
       <c r="K17" s="0">
-        <v>18.043406864715269</v>
+        <v>32.858430210645366</v>
       </c>
       <c r="L17" s="0">
-        <v>17.905881253267466</v>
+        <v>32.605118494505973</v>
       </c>
       <c r="M17" s="0">
-        <v>17.686973386667795</v>
+        <v>32.267857663758022</v>
       </c>
       <c r="N17" s="0">
-        <v>17.529132426039215</v>
+        <v>31.993802292026579</v>
       </c>
       <c r="O17" s="0">
-        <v>17.129841976760353</v>
+        <v>31.242340134436134</v>
       </c>
       <c r="P17" s="0">
-        <v>16.330284043889304</v>
+        <v>29.672335394607973</v>
       </c>
       <c r="Q17" s="0">
-        <v>15.3000255755626</v>
+        <v>27.57512282047934</v>
       </c>
       <c r="R17" s="0">
-        <v>14.146748137827851</v>
+        <v>25.202060695957911</v>
       </c>
       <c r="S17" s="0">
-        <v>12.926797098258483</v>
+        <v>22.753788957871524</v>
       </c>
       <c r="T17" s="0">
-        <v>11.748668043513085</v>
+        <v>20.377525782180428</v>
       </c>
       <c r="U17" s="0">
-        <v>10.65257615625543</v>
+        <v>18.235299301152775</v>
       </c>
       <c r="V17" s="0">
-        <v>9.6591536305903549</v>
+        <v>16.314095979959667</v>
       </c>
       <c r="W17" s="0">
-        <v>8.9175185662256862</v>
+        <v>14.854578160385175</v>
       </c>
       <c r="X17" s="0">
-        <v>8.451690135659117</v>
+        <v>13.897734247012522</v>
       </c>
       <c r="Y17" s="0">
-        <v>8.1418764319650059</v>
+        <v>13.245851239218016</v>
       </c>
       <c r="Z17" s="0">
-        <v>7.9258600998875881</v>
+        <v>12.785840164205451</v>
       </c>
       <c r="AA17" s="0">
-        <v>7.7690277196428834</v>
+        <v>12.454017677061959</v>
       </c>
       <c r="AB17" s="0">
-        <v>7.6505791282896638</v>
+        <v>12.206453158732126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>30.989210064647402</v>
+        <v>61.368804449245062</v>
       </c>
       <c r="B18" s="0">
-        <v>29.614008914613731</v>
+        <v>58.533481270731343</v>
       </c>
       <c r="C18" s="0">
-        <v>28.19435169863646</v>
+        <v>55.568164158930983</v>
       </c>
       <c r="D18" s="0">
-        <v>26.774459174649863</v>
+        <v>52.566462266752147</v>
       </c>
       <c r="E18" s="0">
-        <v>25.527458605839421</v>
+        <v>49.817380513861551</v>
       </c>
       <c r="F18" s="0">
-        <v>24.543287374692525</v>
+        <v>47.493917636485506</v>
       </c>
       <c r="G18" s="0">
-        <v>23.603569247331738</v>
+        <v>45.367701851548993</v>
       </c>
       <c r="H18" s="0">
-        <v>23.026940165234926</v>
+        <v>43.720903356181338</v>
       </c>
       <c r="I18" s="0">
-        <v>23.712131056616833</v>
+        <v>43.494230951356102</v>
       </c>
       <c r="J18" s="0">
-        <v>25.519692422468797</v>
+        <v>44.615015000142549</v>
       </c>
       <c r="K18" s="0">
-        <v>26.78594658630152</v>
+        <v>45.413885946795773</v>
       </c>
       <c r="L18" s="0">
-        <v>26.832586188735782</v>
+        <v>45.0599218866288</v>
       </c>
       <c r="M18" s="0">
-        <v>26.732452663818954</v>
+        <v>44.608745459468267</v>
       </c>
       <c r="N18" s="0">
-        <v>26.641585271496659</v>
+        <v>44.222930225905252</v>
       </c>
       <c r="O18" s="0">
-        <v>26.120131433893199</v>
+        <v>43.158882575515122</v>
       </c>
       <c r="P18" s="0">
-        <v>24.893129378632004</v>
+        <v>40.914076524898164</v>
       </c>
       <c r="Q18" s="0">
-        <v>23.208934787042274</v>
+        <v>37.872695395024785</v>
       </c>
       <c r="R18" s="0">
-        <v>21.279616524231926</v>
+        <v>34.390547045524656</v>
       </c>
       <c r="S18" s="0">
-        <v>19.27374268004489</v>
+        <v>30.807105920760055</v>
       </c>
       <c r="T18" s="0">
-        <v>17.315427398157592</v>
+        <v>27.350015263856506</v>
       </c>
       <c r="U18" s="0">
-        <v>15.486748075345259</v>
+        <v>24.126449554221601</v>
       </c>
       <c r="V18" s="0">
-        <v>13.833562229607734</v>
+        <v>21.226830213360621</v>
       </c>
       <c r="W18" s="0">
-        <v>12.574597032879426</v>
+        <v>18.99501924117444</v>
       </c>
       <c r="X18" s="0">
-        <v>11.749726344195929</v>
+        <v>17.491889580270431</v>
       </c>
       <c r="Y18" s="0">
-        <v>11.188965447981944</v>
+        <v>16.452250093689731</v>
       </c>
       <c r="Z18" s="0">
-        <v>10.794945340233618</v>
+        <v>15.711791284532024</v>
       </c>
       <c r="AA18" s="0">
-        <v>10.509739252647815</v>
+        <v>15.170574735859223</v>
       </c>
       <c r="AB18" s="0">
-        <v>10.297095886189631</v>
+        <v>14.764508982577876</v>
       </c>
     </row>
   </sheetData>
